--- a/PTBR-COM-PORTRAIT/Lang/PTBR/Game/Chara.xlsx
+++ b/PTBR-COM-PORTRAIT/Lang/PTBR/Game/Chara.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ysi\Documents\GitHub\elin-portugues-brasileiro\PTBR\Lang\PTBR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D3BFE0A-AE5A-4525-B6E7-EF0FFE1F059D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F155F199-44F5-4D9A-AD8A-55CEDEB4EB1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7296,9 +7296,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L554"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A213" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J225" sqref="J225:J234"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A519" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D541" sqref="D541"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/PTBR-COM-PORTRAIT/Lang/PTBR/Game/Chara.xlsx
+++ b/PTBR-COM-PORTRAIT/Lang/PTBR/Game/Chara.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ysi\Documents\GitHub\elin-portugues-brasileiro\PTBR\Lang\PTBR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A60D07B-A922-49CF-97DE-0187E469BF45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03DBADA8-FCBA-43BA-844E-F5C3184D1410}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10320" yWindow="0" windowWidth="10320" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2070" yWindow="990" windowWidth="15450" windowHeight="9810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chara" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3497" uniqueCount="2311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3497" uniqueCount="2301">
   <si>
     <t>id</t>
   </si>
@@ -4384,9 +4384,6 @@
     <t>Fantasma de Vela</t>
   </si>
   <si>
-    <t>Homem Legal (Gay)</t>
-  </si>
-  <si>
     <t>Cogumelo com Esporos</t>
   </si>
   <si>
@@ -4702,12 +4699,6 @@
     <t>Dodô Rex</t>
   </si>
   <si>
-    <t>#ele3 Draco</t>
-  </si>
-  <si>
-    <t>#ele3 Dragão</t>
-  </si>
-  <si>
     <t>Dama de Companhia de Lolth</t>
   </si>
   <si>
@@ -5419,63 +5410,6 @@
     <t>アザラシ</t>
   </si>
   <si>
-    <t xml:space="preserve">Tubarão  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peixinho  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peixe-Coroa  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peixe-Coral  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Xidazoon  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peixe-Anjo  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Robalo  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Piranha  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peixe-Balão  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Polvo  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bebê Kraken  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Água-Viva  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cavalo-Marinho  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Caramujo-Marinho  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tartaruga  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anêmona-do-Mar  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dragão-Marinho Folhado  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Velozinho  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arqueiro Velozinho  </t>
-  </si>
-  <si>
     <t>Foca</t>
   </si>
   <si>
@@ -5812,90 +5746,6 @@
     <t>天穿の</t>
   </si>
   <si>
-    <t xml:space="preserve">Camarão-Mantis Ancestral  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tubarão Irmã Mais Nova  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verme Marinho  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fera de Um Chifre  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Putit D'água  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">*r  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kraken  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sahagin  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Filhote de Shub-Niggurath  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sahagin Ladrão  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bicerin  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yog-Sothoth  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sahagin Feiticeiro  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ligon Faminto do Mar  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pinguim  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peixe-Pedra  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pinguim Imperador  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Escorpião-Marinho  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jure  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Onda Gigante  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cthaat  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tricerátopo  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dagon  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tigre Dente-de-Sabre  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leia  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nanasu  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Poina  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Raina  </t>
-  </si>
-  <si>
     <t>EA 23.153</t>
   </si>
   <si>
@@ -6013,33 +5863,6 @@
     <t>イモーロナク</t>
   </si>
   <si>
-    <t>marinho folhado #ele5 dragão</t>
-  </si>
-  <si>
-    <t>#ele5 serpente</t>
-  </si>
-  <si>
-    <t>Irmã mais nova leopardo das neves</t>
-  </si>
-  <si>
-    <t>ondina</t>
-  </si>
-  <si>
-    <t>medusa profunda</t>
-  </si>
-  <si>
-    <t>esquilo assassino</t>
-  </si>
-  <si>
-    <t>morcego vampiro</t>
-  </si>
-  <si>
-    <t>morcego dragão</t>
-  </si>
-  <si>
-    <t>louva-a-deus assassino</t>
-  </si>
-  <si>
     <t>spider_tarantula</t>
   </si>
   <si>
@@ -6622,78 +6445,9 @@
     <t>無の</t>
   </si>
   <si>
-    <t>tarântula</t>
-  </si>
-  <si>
-    <t>cogumelo monstro</t>
-  </si>
-  <si>
-    <t>perseguidor</t>
-  </si>
-  <si>
-    <t>guerreiro dente de dragão</t>
-  </si>
-  <si>
-    <t>boxeador homem-lagarto</t>
-  </si>
-  <si>
-    <t>estrela-do-mar</t>
-  </si>
-  <si>
-    <t>aranha vampira</t>
-  </si>
-  <si>
-    <t>paralisador</t>
-  </si>
-  <si>
-    <t>rainha aranha sombria</t>
-  </si>
-  <si>
-    <t>arqueiro centauro</t>
-  </si>
-  <si>
-    <t>falha</t>
-  </si>
-  <si>
-    <t>bastião</t>
-  </si>
-  <si>
-    <t>escaravelho</t>
-  </si>
-  <si>
-    <t>torre automática</t>
-  </si>
-  <si>
-    <t>soldado</t>
-  </si>
-  <si>
-    <t>bola assassina</t>
-  </si>
-  <si>
-    <t>falha beth</t>
-  </si>
-  <si>
-    <t>filhote chamado "Vesel"</t>
-  </si>
-  <si>
-    <t>Guardião do Jardim</t>
-  </si>
-  <si>
     <t>Innos Tur'as 2</t>
   </si>
   <si>
-    <t>vampiro</t>
-  </si>
-  <si>
-    <t>morcego</t>
-  </si>
-  <si>
-    <t>tubarão mecânico</t>
-  </si>
-  <si>
-    <t>casulo</t>
-  </si>
-  <si>
     <t>mão venenosa</t>
   </si>
   <si>
@@ -6853,21 +6607,6 @@
     <t>黒騎士</t>
   </si>
   <si>
-    <t>unicórnio</t>
-  </si>
-  <si>
-    <t>pesadelo</t>
-  </si>
-  <si>
-    <t>filhote</t>
-  </si>
-  <si>
-    <t>lich mestre</t>
-  </si>
-  <si>
-    <t>demi-lich</t>
-  </si>
-  <si>
     <t>irmã mais nova</t>
   </si>
   <si>
@@ -6946,16 +6685,247 @@
     <t>昔から左下にいたヤツ</t>
   </si>
   <si>
-    <t>mensageiro da morte</t>
-  </si>
-  <si>
-    <t>ceifador</t>
-  </si>
-  <si>
-    <t>zangão</t>
-  </si>
-  <si>
     <t>O que sempre esteve no canto inferior esquerdo</t>
+  </si>
+  <si>
+    <t>Mensageiro da Morte</t>
+  </si>
+  <si>
+    <t>Ceifador</t>
+  </si>
+  <si>
+    <t>Drone</t>
+  </si>
+  <si>
+    <t>Dragão #ele3</t>
+  </si>
+  <si>
+    <t>Draco #ele3</t>
+  </si>
+  <si>
+    <t>Mestre Lich</t>
+  </si>
+  <si>
+    <t>Unicórnio</t>
+  </si>
+  <si>
+    <t>Pesadelo</t>
+  </si>
+  <si>
+    <t>Kelpie</t>
+  </si>
+  <si>
+    <t>Semi-Lich</t>
+  </si>
+  <si>
+    <t>Vampiro</t>
+  </si>
+  <si>
+    <t>Tubarão Mecânico</t>
+  </si>
+  <si>
+    <t>Casulo</t>
+  </si>
+  <si>
+    <t>Torrreta Automática</t>
+  </si>
+  <si>
+    <t>Soldado</t>
+  </si>
+  <si>
+    <t>Bola Assassina</t>
+  </si>
+  <si>
+    <t>Falha De Beth</t>
+  </si>
+  <si>
+    <t>Erishe</t>
+  </si>
+  <si>
+    <t>Filhote Chamado "Vesel"</t>
+  </si>
+  <si>
+    <t>Guardião Do Jardim</t>
+  </si>
+  <si>
+    <t>Arqueiro Centauro</t>
+  </si>
+  <si>
+    <t>Fracasso</t>
+  </si>
+  <si>
+    <t>Bastião</t>
+  </si>
+  <si>
+    <t>Escaravelho</t>
+  </si>
+  <si>
+    <t>#ele3 Bit</t>
+  </si>
+  <si>
+    <t>Dragão Marinho Folhoso #ele5</t>
+  </si>
+  <si>
+    <t>Serpente #ele5</t>
+  </si>
+  <si>
+    <t>Irmã Mais Nova Leopardo Das Neves</t>
+  </si>
+  <si>
+    <t>Undine</t>
+  </si>
+  <si>
+    <t>Água-Viva Das Profundezas</t>
+  </si>
+  <si>
+    <t>Esquilo Assassino</t>
+  </si>
+  <si>
+    <t>Morcego Vampiro</t>
+  </si>
+  <si>
+    <t>Morcego Dragão</t>
+  </si>
+  <si>
+    <t>Louva-Deus Assassino</t>
+  </si>
+  <si>
+    <t>Tarântula</t>
+  </si>
+  <si>
+    <t>Cogumelo Monstruoso</t>
+  </si>
+  <si>
+    <t>Guerreiro Dente De Dragão</t>
+  </si>
+  <si>
+    <t>Lagarto Boxeador</t>
+  </si>
+  <si>
+    <t>Estrela Do Mar</t>
+  </si>
+  <si>
+    <t>Aranha Vampira</t>
+  </si>
+  <si>
+    <t>Paralisador</t>
+  </si>
+  <si>
+    <t>Rainha Das Aranhas Sombrias</t>
+  </si>
+  <si>
+    <t>Cara Gato</t>
+  </si>
+  <si>
+    <t>Tartaruga</t>
+  </si>
+  <si>
+    <t>Anêmona-do-Mar</t>
+  </si>
+  <si>
+    <t>Dragão-Marinho Folhado</t>
+  </si>
+  <si>
+    <t>Velozinho</t>
+  </si>
+  <si>
+    <t>Cavalo-Marinho</t>
+  </si>
+  <si>
+    <t>Arqueiro Velozinho</t>
+  </si>
+  <si>
+    <t>Peixe-Balão</t>
+  </si>
+  <si>
+    <t>Água-Viva</t>
+  </si>
+  <si>
+    <t>Caramujo-Marinho</t>
+  </si>
+  <si>
+    <t>Polvo</t>
+  </si>
+  <si>
+    <t>Bebê Kraken</t>
+  </si>
+  <si>
+    <t>Tubarão</t>
+  </si>
+  <si>
+    <t>Peixinho</t>
+  </si>
+  <si>
+    <t>Peixe-Coroa</t>
+  </si>
+  <si>
+    <t>Peixe-Coral</t>
+  </si>
+  <si>
+    <t>Xidazoon</t>
+  </si>
+  <si>
+    <t>Peixe-Anjo</t>
+  </si>
+  <si>
+    <t>Robalo</t>
+  </si>
+  <si>
+    <t>Piranha</t>
+  </si>
+  <si>
+    <t>Camarão-Mantis Ancestral</t>
+  </si>
+  <si>
+    <t>Tubarão Irmã Mais Nova</t>
+  </si>
+  <si>
+    <t>Verme Marinho</t>
+  </si>
+  <si>
+    <t>Fera de Um Chifre</t>
+  </si>
+  <si>
+    <t>Putit D'água</t>
+  </si>
+  <si>
+    <t>Kraken</t>
+  </si>
+  <si>
+    <t>Sahagin</t>
+  </si>
+  <si>
+    <t>Filhote de Shub-Niggurath</t>
+  </si>
+  <si>
+    <t>Sahagin Ladrão</t>
+  </si>
+  <si>
+    <t>Sahagin Feiticeiro</t>
+  </si>
+  <si>
+    <t>Ligon Faminto do Mar</t>
+  </si>
+  <si>
+    <t>Pinguim</t>
+  </si>
+  <si>
+    <t>Peixe-Pedra</t>
+  </si>
+  <si>
+    <t>Pinguim Imperador</t>
+  </si>
+  <si>
+    <t>Escorpião-Marinho</t>
+  </si>
+  <si>
+    <t>Onda Gigante</t>
+  </si>
+  <si>
+    <t>Tricerátopo</t>
+  </si>
+  <si>
+    <t>Tigre Dente-de-Sabre</t>
   </si>
 </sst>
 </file>
@@ -7354,22 +7324,22 @@
   <dimension ref="A1:L559"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A533" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D559" sqref="D559"/>
+      <pane ySplit="2" topLeftCell="A340" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D355" sqref="D355"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="3" width="16" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="41" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="22" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="22.875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="174.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="22.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="174.42578125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="16" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="144.875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="28.375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="28.25" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="27.25" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="144.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="28.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="28.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="27.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -7479,7 +7449,7 @@
         <v>1239</v>
       </c>
       <c r="J5" t="s">
-        <v>1579</v>
+        <v>1576</v>
       </c>
       <c r="K5" t="s">
         <v>1240</v>
@@ -7505,7 +7475,7 @@
         <v>14</v>
       </c>
       <c r="J6" t="s">
-        <v>1710</v>
+        <v>1707</v>
       </c>
       <c r="K6" t="s">
         <v>977</v>
@@ -7531,7 +7501,7 @@
         <v>14</v>
       </c>
       <c r="J7" t="s">
-        <v>1589</v>
+        <v>1586</v>
       </c>
       <c r="K7" t="s">
         <v>101</v>
@@ -7557,7 +7527,7 @@
         <v>628</v>
       </c>
       <c r="J8" t="s">
-        <v>1614</v>
+        <v>1611</v>
       </c>
       <c r="K8" t="s">
         <v>629</v>
@@ -7583,7 +7553,7 @@
         <v>578</v>
       </c>
       <c r="J9" t="s">
-        <v>1671</v>
+        <v>1668</v>
       </c>
       <c r="K9" t="s">
         <v>579</v>
@@ -7635,7 +7605,7 @@
         <v>14</v>
       </c>
       <c r="J11" t="s">
-        <v>1597</v>
+        <v>1594</v>
       </c>
       <c r="K11" t="s">
         <v>176</v>
@@ -7661,7 +7631,7 @@
         <v>14</v>
       </c>
       <c r="J12" t="s">
-        <v>1694</v>
+        <v>1691</v>
       </c>
       <c r="K12" t="s">
         <v>839</v>
@@ -7687,7 +7657,7 @@
         <v>14</v>
       </c>
       <c r="J13" t="s">
-        <v>1620</v>
+        <v>1617</v>
       </c>
       <c r="K13" t="s">
         <v>839</v>
@@ -7713,7 +7683,7 @@
         <v>14</v>
       </c>
       <c r="J14" t="s">
-        <v>1708</v>
+        <v>1705</v>
       </c>
       <c r="K14" t="s">
         <v>962</v>
@@ -7739,7 +7709,7 @@
         <v>14</v>
       </c>
       <c r="J15" t="s">
-        <v>1652</v>
+        <v>1649</v>
       </c>
       <c r="K15" t="s">
         <v>328</v>
@@ -7765,7 +7735,7 @@
         <v>14</v>
       </c>
       <c r="J16" t="s">
-        <v>1709</v>
+        <v>1706</v>
       </c>
       <c r="K16" t="s">
         <v>974</v>
@@ -7791,7 +7761,7 @@
         <v>1167</v>
       </c>
       <c r="J17" t="s">
-        <v>1731</v>
+        <v>1728</v>
       </c>
       <c r="K17" t="s">
         <v>1168</v>
@@ -7817,13 +7787,13 @@
         <v>357</v>
       </c>
       <c r="G18" t="s">
-        <v>1577</v>
+        <v>1574</v>
       </c>
       <c r="I18" t="s">
         <v>358</v>
       </c>
       <c r="J18" t="s">
-        <v>1605</v>
+        <v>1602</v>
       </c>
       <c r="K18" t="s">
         <v>359</v>
@@ -7849,7 +7819,7 @@
         <v>14</v>
       </c>
       <c r="J19" t="s">
-        <v>1615</v>
+        <v>1612</v>
       </c>
       <c r="K19" t="s">
         <v>690</v>
@@ -7875,7 +7845,7 @@
         <v>14</v>
       </c>
       <c r="J20" t="s">
-        <v>1642</v>
+        <v>1639</v>
       </c>
       <c r="K20" t="s">
         <v>235</v>
@@ -7901,7 +7871,7 @@
         <v>14</v>
       </c>
       <c r="J21" t="s">
-        <v>1642</v>
+        <v>1639</v>
       </c>
       <c r="K21" t="s">
         <v>235</v>
@@ -7927,7 +7897,7 @@
         <v>14</v>
       </c>
       <c r="J22" t="s">
-        <v>1639</v>
+        <v>1636</v>
       </c>
       <c r="K22" t="s">
         <v>200</v>
@@ -7953,7 +7923,7 @@
         <v>14</v>
       </c>
       <c r="J23" t="s">
-        <v>1619</v>
+        <v>1616</v>
       </c>
       <c r="K23" t="s">
         <v>844</v>
@@ -7979,7 +7949,7 @@
         <v>14</v>
       </c>
       <c r="J24" t="s">
-        <v>1656</v>
+        <v>1653</v>
       </c>
       <c r="K24" t="s">
         <v>418</v>
@@ -8057,7 +8027,7 @@
         <v>1249</v>
       </c>
       <c r="J27" t="s">
-        <v>1580</v>
+        <v>1577</v>
       </c>
       <c r="L27" t="s">
         <v>1250</v>
@@ -8132,7 +8102,7 @@
         <v>14</v>
       </c>
       <c r="J30" t="s">
-        <v>1707</v>
+        <v>1704</v>
       </c>
       <c r="K30" t="s">
         <v>960</v>
@@ -8158,7 +8128,7 @@
         <v>14</v>
       </c>
       <c r="J31" t="s">
-        <v>1681</v>
+        <v>1678</v>
       </c>
       <c r="K31" t="s">
         <v>730</v>
@@ -8184,7 +8154,7 @@
         <v>14</v>
       </c>
       <c r="J32" t="s">
-        <v>1690</v>
+        <v>1687</v>
       </c>
       <c r="K32" t="s">
         <v>825</v>
@@ -8210,7 +8180,7 @@
         <v>14</v>
       </c>
       <c r="J33" t="s">
-        <v>1706</v>
+        <v>1703</v>
       </c>
       <c r="K33" t="s">
         <v>954</v>
@@ -8236,7 +8206,7 @@
         <v>14</v>
       </c>
       <c r="J34" t="s">
-        <v>1697</v>
+        <v>1694</v>
       </c>
       <c r="K34" t="s">
         <v>884</v>
@@ -8262,7 +8232,7 @@
         <v>14</v>
       </c>
       <c r="J35" t="s">
-        <v>1685</v>
+        <v>1682</v>
       </c>
       <c r="K35" t="s">
         <v>778</v>
@@ -8288,7 +8258,7 @@
         <v>14</v>
       </c>
       <c r="J36" t="s">
-        <v>1616</v>
+        <v>1613</v>
       </c>
       <c r="K36" t="s">
         <v>739</v>
@@ -8314,7 +8284,7 @@
         <v>14</v>
       </c>
       <c r="J37" t="s">
-        <v>1682</v>
+        <v>1679</v>
       </c>
       <c r="K37" t="s">
         <v>736</v>
@@ -8340,7 +8310,7 @@
         <v>14</v>
       </c>
       <c r="J38" t="s">
-        <v>1688</v>
+        <v>1685</v>
       </c>
       <c r="K38" t="s">
         <v>798</v>
@@ -8366,7 +8336,7 @@
         <v>1066</v>
       </c>
       <c r="J39" t="s">
-        <v>1720</v>
+        <v>1717</v>
       </c>
       <c r="K39" t="s">
         <v>1067</v>
@@ -8392,7 +8362,7 @@
         <v>670</v>
       </c>
       <c r="J40" t="s">
-        <v>1676</v>
+        <v>1673</v>
       </c>
       <c r="K40" t="s">
         <v>671</v>
@@ -8418,7 +8388,7 @@
         <v>14</v>
       </c>
       <c r="J41" t="s">
-        <v>1593</v>
+        <v>1590</v>
       </c>
       <c r="K41" t="s">
         <v>252</v>
@@ -8444,7 +8414,7 @@
         <v>14</v>
       </c>
       <c r="J42" t="s">
-        <v>1684</v>
+        <v>1681</v>
       </c>
       <c r="K42" t="s">
         <v>772</v>
@@ -8470,7 +8440,7 @@
         <v>1102</v>
       </c>
       <c r="J43" t="s">
-        <v>1725</v>
+        <v>1722</v>
       </c>
       <c r="K43" t="s">
         <v>1103</v>
@@ -8496,7 +8466,7 @@
         <v>14</v>
       </c>
       <c r="J44" t="s">
-        <v>1715</v>
+        <v>1712</v>
       </c>
       <c r="K44" t="s">
         <v>1019</v>
@@ -8522,7 +8492,7 @@
         <v>14</v>
       </c>
       <c r="J45" t="s">
-        <v>1653</v>
+        <v>1650</v>
       </c>
       <c r="K45" t="s">
         <v>389</v>
@@ -8548,7 +8518,7 @@
         <v>1172</v>
       </c>
       <c r="J46" t="s">
-        <v>1732</v>
+        <v>1729</v>
       </c>
       <c r="K46" t="s">
         <v>1173</v>
@@ -8574,7 +8544,7 @@
         <v>1177</v>
       </c>
       <c r="J47" t="s">
-        <v>1732</v>
+        <v>1729</v>
       </c>
       <c r="K47" t="s">
         <v>1173</v>
@@ -8600,7 +8570,7 @@
         <v>14</v>
       </c>
       <c r="J48" t="s">
-        <v>1689</v>
+        <v>1686</v>
       </c>
       <c r="K48" t="s">
         <v>822</v>
@@ -8626,7 +8596,7 @@
         <v>14</v>
       </c>
       <c r="J49" t="s">
-        <v>1608</v>
+        <v>1605</v>
       </c>
       <c r="K49" t="s">
         <v>411</v>
@@ -8652,7 +8622,7 @@
         <v>334</v>
       </c>
       <c r="J50" t="s">
-        <v>1603</v>
+        <v>1600</v>
       </c>
       <c r="K50" t="s">
         <v>335</v>
@@ -8678,7 +8648,7 @@
         <v>877</v>
       </c>
       <c r="J51" t="s">
-        <v>1695</v>
+        <v>1692</v>
       </c>
       <c r="K51" t="s">
         <v>878</v>
@@ -8756,7 +8726,7 @@
         <v>14</v>
       </c>
       <c r="J54" t="s">
-        <v>1729</v>
+        <v>1726</v>
       </c>
       <c r="K54" t="s">
         <v>1158</v>
@@ -8782,7 +8752,7 @@
         <v>14</v>
       </c>
       <c r="J55" t="s">
-        <v>1729</v>
+        <v>1726</v>
       </c>
       <c r="K55" t="s">
         <v>1158</v>
@@ -8808,7 +8778,7 @@
         <v>483</v>
       </c>
       <c r="J56" t="s">
-        <v>1610</v>
+        <v>1607</v>
       </c>
       <c r="K56" t="s">
         <v>484</v>
@@ -8834,7 +8804,7 @@
         <v>308</v>
       </c>
       <c r="J57" t="s">
-        <v>1649</v>
+        <v>1646</v>
       </c>
       <c r="K57" t="s">
         <v>309</v>
@@ -8860,7 +8830,7 @@
         <v>14</v>
       </c>
       <c r="J58" t="s">
-        <v>1617</v>
+        <v>1614</v>
       </c>
       <c r="K58" t="s">
         <v>788</v>
@@ -8886,7 +8856,7 @@
         <v>14</v>
       </c>
       <c r="J59" t="s">
-        <v>1627</v>
+        <v>1624</v>
       </c>
       <c r="K59" t="s">
         <v>1070</v>
@@ -8912,7 +8882,7 @@
         <v>14</v>
       </c>
       <c r="J60" t="s">
-        <v>1606</v>
+        <v>1603</v>
       </c>
       <c r="K60" t="s">
         <v>371</v>
@@ -8938,7 +8908,7 @@
         <v>14</v>
       </c>
       <c r="J61" t="s">
-        <v>1650</v>
+        <v>1647</v>
       </c>
       <c r="K61" t="s">
         <v>318</v>
@@ -8964,7 +8934,7 @@
         <v>14</v>
       </c>
       <c r="J62" t="s">
-        <v>1665</v>
+        <v>1662</v>
       </c>
       <c r="K62" t="s">
         <v>476</v>
@@ -8990,7 +8960,7 @@
         <v>1180</v>
       </c>
       <c r="J63" t="s">
-        <v>1733</v>
+        <v>1730</v>
       </c>
       <c r="K63" t="s">
         <v>1181</v>
@@ -9016,7 +8986,7 @@
         <v>987</v>
       </c>
       <c r="J64" t="s">
-        <v>1625</v>
+        <v>1622</v>
       </c>
       <c r="K64" t="s">
         <v>786</v>
@@ -9042,7 +9012,7 @@
         <v>14</v>
       </c>
       <c r="J65" t="s">
-        <v>1713</v>
+        <v>1710</v>
       </c>
       <c r="K65" t="s">
         <v>1013</v>
@@ -9068,7 +9038,7 @@
         <v>14</v>
       </c>
       <c r="J66" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="K66" t="s">
         <v>122</v>
@@ -9094,7 +9064,7 @@
         <v>1234</v>
       </c>
       <c r="J67" t="s">
-        <v>1578</v>
+        <v>1575</v>
       </c>
       <c r="K67" t="s">
         <v>1235</v>
@@ -9120,7 +9090,7 @@
         <v>14</v>
       </c>
       <c r="J68" t="s">
-        <v>1696</v>
+        <v>1693</v>
       </c>
       <c r="K68" t="s">
         <v>881</v>
@@ -9146,7 +9116,7 @@
         <v>14</v>
       </c>
       <c r="J69" t="s">
-        <v>1691</v>
+        <v>1688</v>
       </c>
       <c r="K69" t="s">
         <v>828</v>
@@ -9172,7 +9142,7 @@
         <v>14</v>
       </c>
       <c r="J70" t="s">
-        <v>1604</v>
+        <v>1601</v>
       </c>
       <c r="K70" t="s">
         <v>342</v>
@@ -9198,7 +9168,7 @@
         <v>507</v>
       </c>
       <c r="J71" t="s">
-        <v>1670</v>
+        <v>1667</v>
       </c>
       <c r="K71" t="s">
         <v>508</v>
@@ -9224,7 +9194,7 @@
         <v>761</v>
       </c>
       <c r="J72" t="s">
-        <v>1683</v>
+        <v>1680</v>
       </c>
       <c r="K72" t="s">
         <v>762</v>
@@ -9250,7 +9220,7 @@
         <v>680</v>
       </c>
       <c r="J73" t="s">
-        <v>1677</v>
+        <v>1674</v>
       </c>
       <c r="K73" t="s">
         <v>681</v>
@@ -9276,7 +9246,7 @@
         <v>1141</v>
       </c>
       <c r="J74" t="s">
-        <v>1728</v>
+        <v>1725</v>
       </c>
       <c r="K74" t="s">
         <v>1142</v>
@@ -9302,7 +9272,7 @@
         <v>832</v>
       </c>
       <c r="J75" t="s">
-        <v>1692</v>
+        <v>1689</v>
       </c>
       <c r="K75" t="s">
         <v>833</v>
@@ -9328,7 +9298,7 @@
         <v>14</v>
       </c>
       <c r="J76" t="s">
-        <v>1666</v>
+        <v>1663</v>
       </c>
       <c r="K76" t="s">
         <v>478</v>
@@ -9354,7 +9324,7 @@
         <v>14</v>
       </c>
       <c r="J77" t="s">
-        <v>1730</v>
+        <v>1727</v>
       </c>
       <c r="K77" t="s">
         <v>1161</v>
@@ -9380,7 +9350,7 @@
         <v>1061</v>
       </c>
       <c r="J78" t="s">
-        <v>1719</v>
+        <v>1716</v>
       </c>
       <c r="K78" t="s">
         <v>1062</v>
@@ -9406,7 +9376,7 @@
         <v>1093</v>
       </c>
       <c r="J79" t="s">
-        <v>1723</v>
+        <v>1720</v>
       </c>
       <c r="K79" t="s">
         <v>1094</v>
@@ -9432,7 +9402,7 @@
         <v>1206</v>
       </c>
       <c r="J80" t="s">
-        <v>1581</v>
+        <v>1578</v>
       </c>
       <c r="K80" t="s">
         <v>1207</v>
@@ -9458,7 +9428,7 @@
         <v>715</v>
       </c>
       <c r="J81" t="s">
-        <v>1679</v>
+        <v>1676</v>
       </c>
       <c r="K81" t="s">
         <v>716</v>
@@ -9484,7 +9454,7 @@
         <v>771</v>
       </c>
       <c r="J82" t="s">
-        <v>1679</v>
+        <v>1676</v>
       </c>
       <c r="K82" t="s">
         <v>716</v>
@@ -9510,7 +9480,7 @@
         <v>648</v>
       </c>
       <c r="J83" t="s">
-        <v>1675</v>
+        <v>1672</v>
       </c>
       <c r="K83" t="s">
         <v>649</v>
@@ -9536,7 +9506,7 @@
         <v>14</v>
       </c>
       <c r="J84" t="s">
-        <v>1705</v>
+        <v>1702</v>
       </c>
       <c r="K84" t="s">
         <v>943</v>
@@ -9562,7 +9532,7 @@
         <v>14</v>
       </c>
       <c r="J85" t="s">
-        <v>1718</v>
+        <v>1715</v>
       </c>
       <c r="K85" t="s">
         <v>1057</v>
@@ -9588,7 +9558,7 @@
         <v>14</v>
       </c>
       <c r="J86" t="s">
-        <v>1621</v>
+        <v>1618</v>
       </c>
       <c r="K86" t="s">
         <v>938</v>
@@ -9614,7 +9584,7 @@
         <v>1098</v>
       </c>
       <c r="J87" t="s">
-        <v>1724</v>
+        <v>1721</v>
       </c>
       <c r="K87" t="s">
         <v>1435</v>
@@ -9640,7 +9610,7 @@
         <v>1146</v>
       </c>
       <c r="J88" t="s">
-        <v>1630</v>
+        <v>1627</v>
       </c>
       <c r="K88" t="s">
         <v>1147</v>
@@ -9666,7 +9636,7 @@
         <v>14</v>
       </c>
       <c r="J89" t="s">
-        <v>1622</v>
+        <v>1619</v>
       </c>
       <c r="K89" t="s">
         <v>946</v>
@@ -10465,7 +10435,7 @@
         <v>1261</v>
       </c>
       <c r="D136" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="E136" t="s">
         <v>448</v>
@@ -10482,7 +10452,7 @@
         <v>1261</v>
       </c>
       <c r="D137" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="E137" t="s">
         <v>454</v>
@@ -10499,7 +10469,7 @@
         <v>1261</v>
       </c>
       <c r="D138" t="s">
-        <v>1453</v>
+        <v>2263</v>
       </c>
       <c r="E138" t="s">
         <v>460</v>
@@ -10516,7 +10486,7 @@
         <v>1261</v>
       </c>
       <c r="D139" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="E139" t="s">
         <v>463</v>
@@ -10533,7 +10503,7 @@
         <v>1261</v>
       </c>
       <c r="D140" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="E140" t="s">
         <v>471</v>
@@ -10550,7 +10520,7 @@
         <v>1261</v>
       </c>
       <c r="D141" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="E141" t="s">
         <v>500</v>
@@ -10584,7 +10554,7 @@
         <v>1261</v>
       </c>
       <c r="D143" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="E143" t="s">
         <v>511</v>
@@ -10601,7 +10571,7 @@
         <v>1261</v>
       </c>
       <c r="D144" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="E144" t="s">
         <v>523</v>
@@ -10618,7 +10588,7 @@
         <v>1261</v>
       </c>
       <c r="D145" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="E145" t="s">
         <v>525</v>
@@ -10635,7 +10605,7 @@
         <v>1261</v>
       </c>
       <c r="D146" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="E146" t="s">
         <v>527</v>
@@ -10652,7 +10622,7 @@
         <v>1261</v>
       </c>
       <c r="D147" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="E147" t="s">
         <v>532</v>
@@ -10669,7 +10639,7 @@
         <v>1261</v>
       </c>
       <c r="D148" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="E148" t="s">
         <v>535</v>
@@ -10686,7 +10656,7 @@
         <v>1261</v>
       </c>
       <c r="D149" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="E149" t="s">
         <v>538</v>
@@ -10703,7 +10673,7 @@
         <v>1261</v>
       </c>
       <c r="D150" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="E150" t="s">
         <v>543</v>
@@ -10720,7 +10690,7 @@
         <v>1261</v>
       </c>
       <c r="D151" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="E151" t="s">
         <v>545</v>
@@ -10737,7 +10707,7 @@
         <v>1261</v>
       </c>
       <c r="D152" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="E152" t="s">
         <v>552</v>
@@ -10754,7 +10724,7 @@
         <v>1261</v>
       </c>
       <c r="D153" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="E153" t="s">
         <v>555</v>
@@ -10771,7 +10741,7 @@
         <v>1261</v>
       </c>
       <c r="D154" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="E154" t="s">
         <v>557</v>
@@ -10788,7 +10758,7 @@
         <v>1261</v>
       </c>
       <c r="D155" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="E155" t="s">
         <v>563</v>
@@ -10805,7 +10775,7 @@
         <v>1261</v>
       </c>
       <c r="D156" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="E156" t="s">
         <v>568</v>
@@ -10822,7 +10792,7 @@
         <v>1261</v>
       </c>
       <c r="D157" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="E157" t="s">
         <v>589</v>
@@ -10839,7 +10809,7 @@
         <v>1261</v>
       </c>
       <c r="D158" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="E158" t="s">
         <v>604</v>
@@ -10856,7 +10826,7 @@
         <v>1261</v>
       </c>
       <c r="D159" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="E159" t="s">
         <v>621</v>
@@ -10873,7 +10843,7 @@
         <v>1261</v>
       </c>
       <c r="D160" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="E160" t="s">
         <v>631</v>
@@ -10890,7 +10860,7 @@
         <v>1261</v>
       </c>
       <c r="D161" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="E161" t="s">
         <v>633</v>
@@ -10907,7 +10877,7 @@
         <v>1261</v>
       </c>
       <c r="D162" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="E162" t="s">
         <v>639</v>
@@ -10924,7 +10894,7 @@
         <v>1261</v>
       </c>
       <c r="D163" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="E163" t="s">
         <v>641</v>
@@ -10958,7 +10928,7 @@
         <v>1261</v>
       </c>
       <c r="D165" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="E165" t="s">
         <v>651</v>
@@ -10975,7 +10945,7 @@
         <v>1261</v>
       </c>
       <c r="D166" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="E166" t="s">
         <v>654</v>
@@ -10992,7 +10962,7 @@
         <v>1261</v>
       </c>
       <c r="D167" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="E167" t="s">
         <v>684</v>
@@ -11009,7 +10979,7 @@
         <v>1261</v>
       </c>
       <c r="D168" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="E168" t="s">
         <v>697</v>
@@ -11026,7 +10996,7 @@
         <v>1261</v>
       </c>
       <c r="D169" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="E169" t="s">
         <v>700</v>
@@ -11043,7 +11013,7 @@
         <v>1261</v>
       </c>
       <c r="D170" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="E170" t="s">
         <v>703</v>
@@ -11060,7 +11030,7 @@
         <v>1261</v>
       </c>
       <c r="D171" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="E171" t="s">
         <v>705</v>
@@ -11077,7 +11047,7 @@
         <v>1261</v>
       </c>
       <c r="D172" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="E172" t="s">
         <v>708</v>
@@ -11094,7 +11064,7 @@
         <v>1261</v>
       </c>
       <c r="D173" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="E173" t="s">
         <v>711</v>
@@ -11128,7 +11098,7 @@
         <v>1261</v>
       </c>
       <c r="D175" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="E175" t="s">
         <v>733</v>
@@ -11145,7 +11115,7 @@
         <v>1261</v>
       </c>
       <c r="D176" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="E176" t="s">
         <v>742</v>
@@ -11162,7 +11132,7 @@
         <v>1261</v>
       </c>
       <c r="D177" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="E177" t="s">
         <v>745</v>
@@ -11179,7 +11149,7 @@
         <v>1261</v>
       </c>
       <c r="D178" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="E178" t="s">
         <v>748</v>
@@ -11196,7 +11166,7 @@
         <v>1261</v>
       </c>
       <c r="D179" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="E179" t="s">
         <v>751</v>
@@ -11213,7 +11183,7 @@
         <v>1261</v>
       </c>
       <c r="D180" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="E180" t="s">
         <v>754</v>
@@ -11298,7 +11268,7 @@
         <v>1261</v>
       </c>
       <c r="D185" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="E185" t="s">
         <v>790</v>
@@ -11315,7 +11285,7 @@
         <v>1261</v>
       </c>
       <c r="D186" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="E186" t="s">
         <v>846</v>
@@ -11332,7 +11302,7 @@
         <v>1261</v>
       </c>
       <c r="D187" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="E187" t="s">
         <v>852</v>
@@ -11366,7 +11336,7 @@
         <v>1261</v>
       </c>
       <c r="D189" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="E189" t="s">
         <v>864</v>
@@ -11383,7 +11353,7 @@
         <v>1261</v>
       </c>
       <c r="D190" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="E190" t="s">
         <v>873</v>
@@ -11400,7 +11370,7 @@
         <v>1261</v>
       </c>
       <c r="D191" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="E191" t="s">
         <v>903</v>
@@ -11417,7 +11387,7 @@
         <v>1261</v>
       </c>
       <c r="D192" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="E192" t="s">
         <v>905</v>
@@ -11451,7 +11421,7 @@
         <v>1261</v>
       </c>
       <c r="D194" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="E194" t="s">
         <v>913</v>
@@ -11468,7 +11438,7 @@
         <v>1261</v>
       </c>
       <c r="D195" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="E195" t="s">
         <v>940</v>
@@ -11485,7 +11455,7 @@
         <v>1261</v>
       </c>
       <c r="D196" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="E196" t="s">
         <v>949</v>
@@ -11502,7 +11472,7 @@
         <v>1261</v>
       </c>
       <c r="D197" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="E197" t="s">
         <v>951</v>
@@ -11519,7 +11489,7 @@
         <v>1261</v>
       </c>
       <c r="D198" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="E198" t="s">
         <v>967</v>
@@ -11536,7 +11506,7 @@
         <v>1261</v>
       </c>
       <c r="D199" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="E199" t="s">
         <v>969</v>
@@ -11553,7 +11523,7 @@
         <v>1261</v>
       </c>
       <c r="D200" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="E200" t="s">
         <v>972</v>
@@ -11570,7 +11540,7 @@
         <v>1261</v>
       </c>
       <c r="D201" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="E201" t="s">
         <v>992</v>
@@ -11587,7 +11557,7 @@
         <v>1261</v>
       </c>
       <c r="D202" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="E202" t="s">
         <v>1002</v>
@@ -11604,7 +11574,7 @@
         <v>1261</v>
       </c>
       <c r="D203" t="s">
-        <v>1565</v>
+        <v>1562</v>
       </c>
       <c r="E203" t="s">
         <v>1126</v>
@@ -11621,7 +11591,7 @@
         <v>1261</v>
       </c>
       <c r="D204" t="s">
-        <v>1569</v>
+        <v>1566</v>
       </c>
       <c r="E204" t="s">
         <v>1152</v>
@@ -11638,7 +11608,7 @@
         <v>1261</v>
       </c>
       <c r="D205" t="s">
-        <v>1570</v>
+        <v>1567</v>
       </c>
       <c r="E205" t="s">
         <v>1154</v>
@@ -11672,7 +11642,7 @@
         <v>1261</v>
       </c>
       <c r="D207" t="s">
-        <v>1573</v>
+        <v>1570</v>
       </c>
       <c r="E207" t="s">
         <v>1197</v>
@@ -11689,7 +11659,7 @@
         <v>1261</v>
       </c>
       <c r="D208" t="s">
-        <v>1574</v>
+        <v>1571</v>
       </c>
       <c r="E208" t="s">
         <v>1199</v>
@@ -11706,7 +11676,7 @@
         <v>1261</v>
       </c>
       <c r="D209" t="s">
-        <v>1575</v>
+        <v>1572</v>
       </c>
       <c r="E209" t="s">
         <v>1202</v>
@@ -11758,7 +11728,7 @@
         <v>723</v>
       </c>
       <c r="J211" t="s">
-        <v>1680</v>
+        <v>1677</v>
       </c>
       <c r="K211" t="s">
         <v>724</v>
@@ -11784,7 +11754,7 @@
         <v>617</v>
       </c>
       <c r="J212" t="s">
-        <v>1674</v>
+        <v>1671</v>
       </c>
       <c r="K212" t="s">
         <v>618</v>
@@ -11810,7 +11780,7 @@
         <v>14</v>
       </c>
       <c r="J213" t="s">
-        <v>1703</v>
+        <v>1700</v>
       </c>
       <c r="K213" t="s">
         <v>932</v>
@@ -11836,7 +11806,7 @@
         <v>14</v>
       </c>
       <c r="J214" t="s">
-        <v>1704</v>
+        <v>1701</v>
       </c>
       <c r="K214" t="s">
         <v>935</v>
@@ -11862,7 +11832,7 @@
         <v>14</v>
       </c>
       <c r="J215" t="s">
-        <v>1702</v>
+        <v>1699</v>
       </c>
       <c r="K215" t="s">
         <v>929</v>
@@ -11879,7 +11849,7 @@
         <v>1314</v>
       </c>
       <c r="D216" t="s">
-        <v>1587</v>
+        <v>1584</v>
       </c>
       <c r="E216" t="s">
         <v>636</v>
@@ -11896,7 +11866,7 @@
         <v>1314</v>
       </c>
       <c r="D217" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="E217" t="s">
         <v>673</v>
@@ -11913,7 +11883,7 @@
         <v>1314</v>
       </c>
       <c r="D218" t="s">
-        <v>1576</v>
+        <v>1573</v>
       </c>
       <c r="E218" t="s">
         <v>1210</v>
@@ -11939,7 +11909,7 @@
         <v>14</v>
       </c>
       <c r="J219" t="s">
-        <v>1694</v>
+        <v>1691</v>
       </c>
       <c r="K219" t="s">
         <v>839</v>
@@ -11965,7 +11935,7 @@
         <v>14</v>
       </c>
       <c r="J220" t="s">
-        <v>1642</v>
+        <v>1639</v>
       </c>
       <c r="K220" t="s">
         <v>235</v>
@@ -11991,7 +11961,7 @@
         <v>14</v>
       </c>
       <c r="J221" t="s">
-        <v>1642</v>
+        <v>1639</v>
       </c>
       <c r="K221" t="s">
         <v>235</v>
@@ -12017,7 +11987,7 @@
         <v>14</v>
       </c>
       <c r="J222" t="s">
-        <v>1651</v>
+        <v>1648</v>
       </c>
       <c r="K222" t="s">
         <v>321</v>
@@ -12069,7 +12039,7 @@
         <v>14</v>
       </c>
       <c r="J224" t="s">
-        <v>1629</v>
+        <v>1626</v>
       </c>
       <c r="K224" t="s">
         <v>1124</v>
@@ -12095,7 +12065,7 @@
         <v>1083</v>
       </c>
       <c r="J225" t="s">
-        <v>1721</v>
+        <v>1718</v>
       </c>
       <c r="K225" t="s">
         <v>1084</v>
@@ -12121,7 +12091,7 @@
         <v>14</v>
       </c>
       <c r="J226" t="s">
-        <v>1669</v>
+        <v>1666</v>
       </c>
       <c r="K226" t="s">
         <v>243</v>
@@ -12147,7 +12117,7 @@
         <v>14</v>
       </c>
       <c r="J227" t="s">
-        <v>1600</v>
+        <v>1597</v>
       </c>
       <c r="K227" t="s">
         <v>243</v>
@@ -12199,7 +12169,7 @@
         <v>14</v>
       </c>
       <c r="J229" t="s">
-        <v>1588</v>
+        <v>1585</v>
       </c>
       <c r="K229" t="s">
         <v>101</v>
@@ -12225,7 +12195,7 @@
         <v>14</v>
       </c>
       <c r="J230" t="s">
-        <v>1700</v>
+        <v>1697</v>
       </c>
       <c r="K230" t="s">
         <v>883</v>
@@ -12251,7 +12221,7 @@
         <v>14</v>
       </c>
       <c r="J231" t="s">
-        <v>1700</v>
+        <v>1697</v>
       </c>
       <c r="K231" t="s">
         <v>883</v>
@@ -12268,7 +12238,7 @@
         <v>1308</v>
       </c>
       <c r="D232" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="E232" t="s">
         <v>530</v>
@@ -12285,7 +12255,7 @@
         <v>1308</v>
       </c>
       <c r="D233" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="E233" t="s">
         <v>550</v>
@@ -12311,7 +12281,7 @@
         <v>14</v>
       </c>
       <c r="J234" t="s">
-        <v>1672</v>
+        <v>1669</v>
       </c>
       <c r="K234" t="s">
         <v>582</v>
@@ -12345,7 +12315,7 @@
         <v>1304</v>
       </c>
       <c r="D236" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="E236" t="s">
         <v>624</v>
@@ -12371,7 +12341,7 @@
         <v>14</v>
       </c>
       <c r="J237" t="s">
-        <v>1642</v>
+        <v>1639</v>
       </c>
       <c r="K237" t="s">
         <v>235</v>
@@ -12405,7 +12375,7 @@
         <v>1290</v>
       </c>
       <c r="D239" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="E239" t="s">
         <v>719</v>
@@ -12422,7 +12392,7 @@
         <v>1290</v>
       </c>
       <c r="D240" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="E240" t="s">
         <v>908</v>
@@ -12439,7 +12409,7 @@
         <v>1318</v>
       </c>
       <c r="D241" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="E241" t="s">
         <v>819</v>
@@ -12525,7 +12495,7 @@
         <v>14</v>
       </c>
       <c r="J245" t="s">
-        <v>1712</v>
+        <v>1709</v>
       </c>
       <c r="K245" t="s">
         <v>983</v>
@@ -12551,7 +12521,7 @@
         <v>14</v>
       </c>
       <c r="J246" t="s">
-        <v>1711</v>
+        <v>1708</v>
       </c>
       <c r="K246" t="s">
         <v>980</v>
@@ -12577,7 +12547,7 @@
         <v>14</v>
       </c>
       <c r="J247" t="s">
-        <v>1701</v>
+        <v>1698</v>
       </c>
       <c r="K247" t="s">
         <v>926</v>
@@ -12594,7 +12564,7 @@
         <v>1309</v>
       </c>
       <c r="D248" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="E248" t="s">
         <v>566</v>
@@ -12688,7 +12658,7 @@
         <v>14</v>
       </c>
       <c r="J253" t="s">
-        <v>1588</v>
+        <v>1585</v>
       </c>
       <c r="K253" t="s">
         <v>101</v>
@@ -12714,7 +12684,7 @@
         <v>14</v>
       </c>
       <c r="J254" t="s">
-        <v>1582</v>
+        <v>1579</v>
       </c>
       <c r="K254" t="s">
         <v>25</v>
@@ -12740,7 +12710,7 @@
         <v>14</v>
       </c>
       <c r="J255" t="s">
-        <v>1582</v>
+        <v>1579</v>
       </c>
       <c r="K255" t="s">
         <v>25</v>
@@ -12766,7 +12736,7 @@
         <v>14</v>
       </c>
       <c r="J256" t="s">
-        <v>1585</v>
+        <v>1582</v>
       </c>
       <c r="K256" t="s">
         <v>83</v>
@@ -12792,7 +12762,7 @@
         <v>14</v>
       </c>
       <c r="J257" t="s">
-        <v>1592</v>
+        <v>1589</v>
       </c>
       <c r="K257" t="s">
         <v>109</v>
@@ -12818,7 +12788,7 @@
         <v>14</v>
       </c>
       <c r="J258" t="s">
-        <v>1586</v>
+        <v>1583</v>
       </c>
       <c r="K258" t="s">
         <v>86</v>
@@ -12844,7 +12814,7 @@
         <v>14</v>
       </c>
       <c r="J259" t="s">
-        <v>1655</v>
+        <v>1652</v>
       </c>
       <c r="K259" t="s">
         <v>409</v>
@@ -12870,7 +12840,7 @@
         <v>14</v>
       </c>
       <c r="J260" t="s">
-        <v>1631</v>
+        <v>1628</v>
       </c>
       <c r="K260" t="s">
         <v>115</v>
@@ -12896,7 +12866,7 @@
         <v>14</v>
       </c>
       <c r="J261" t="s">
-        <v>1599</v>
+        <v>1596</v>
       </c>
       <c r="K261" t="s">
         <v>224</v>
@@ -12922,7 +12892,7 @@
         <v>14</v>
       </c>
       <c r="J262" t="s">
-        <v>1687</v>
+        <v>1684</v>
       </c>
       <c r="K262" t="s">
         <v>786</v>
@@ -12948,7 +12918,7 @@
         <v>14</v>
       </c>
       <c r="J263" t="s">
-        <v>1590</v>
+        <v>1587</v>
       </c>
       <c r="K263" t="s">
         <v>99</v>
@@ -12974,7 +12944,7 @@
         <v>14</v>
       </c>
       <c r="J264" t="s">
-        <v>1640</v>
+        <v>1637</v>
       </c>
       <c r="K264" t="s">
         <v>221</v>
@@ -13000,7 +12970,7 @@
         <v>14</v>
       </c>
       <c r="J265" t="s">
-        <v>1636</v>
+        <v>1633</v>
       </c>
       <c r="K265" t="s">
         <v>170</v>
@@ -13026,7 +12996,7 @@
         <v>14</v>
       </c>
       <c r="J266" t="s">
-        <v>1584</v>
+        <v>1581</v>
       </c>
       <c r="K266" t="s">
         <v>63</v>
@@ -13052,7 +13022,7 @@
         <v>14</v>
       </c>
       <c r="J267" t="s">
-        <v>1638</v>
+        <v>1635</v>
       </c>
       <c r="K267" t="s">
         <v>197</v>
@@ -13078,7 +13048,7 @@
         <v>14</v>
       </c>
       <c r="J268" t="s">
-        <v>1623</v>
+        <v>1620</v>
       </c>
       <c r="K268" t="s">
         <v>964</v>
@@ -13104,7 +13074,7 @@
         <v>162</v>
       </c>
       <c r="J269" t="s">
-        <v>1596</v>
+        <v>1593</v>
       </c>
       <c r="K269" t="s">
         <v>163</v>
@@ -13130,7 +13100,7 @@
         <v>14</v>
       </c>
       <c r="J270" t="s">
-        <v>1659</v>
+        <v>1656</v>
       </c>
       <c r="K270" t="s">
         <v>426</v>
@@ -13156,7 +13126,7 @@
         <v>14</v>
       </c>
       <c r="J271" t="s">
-        <v>1660</v>
+        <v>1657</v>
       </c>
       <c r="K271" t="s">
         <v>429</v>
@@ -13182,7 +13152,7 @@
         <v>14</v>
       </c>
       <c r="J272" t="s">
-        <v>1643</v>
+        <v>1640</v>
       </c>
       <c r="K272" t="s">
         <v>275</v>
@@ -13208,7 +13178,7 @@
         <v>280</v>
       </c>
       <c r="J273" t="s">
-        <v>1644</v>
+        <v>1641</v>
       </c>
       <c r="K273" t="s">
         <v>281</v>
@@ -13234,7 +13204,7 @@
         <v>802</v>
       </c>
       <c r="J274" t="s">
-        <v>1618</v>
+        <v>1615</v>
       </c>
       <c r="K274" t="s">
         <v>803</v>
@@ -13260,7 +13230,7 @@
         <v>295</v>
       </c>
       <c r="J275" t="s">
-        <v>1647</v>
+        <v>1644</v>
       </c>
       <c r="K275" t="s">
         <v>296</v>
@@ -13286,7 +13256,7 @@
         <v>14</v>
       </c>
       <c r="J276" t="s">
-        <v>1657</v>
+        <v>1654</v>
       </c>
       <c r="K276" t="s">
         <v>421</v>
@@ -13312,7 +13282,7 @@
         <v>14</v>
       </c>
       <c r="J277" t="s">
-        <v>1648</v>
+        <v>1645</v>
       </c>
       <c r="K277" t="s">
         <v>299</v>
@@ -13338,7 +13308,7 @@
         <v>14</v>
       </c>
       <c r="J278" t="s">
-        <v>1663</v>
+        <v>1660</v>
       </c>
       <c r="K278" t="s">
         <v>438</v>
@@ -13364,7 +13334,7 @@
         <v>14</v>
       </c>
       <c r="J279" t="s">
-        <v>1661</v>
+        <v>1658</v>
       </c>
       <c r="K279" t="s">
         <v>203</v>
@@ -13390,7 +13360,7 @@
         <v>14</v>
       </c>
       <c r="J280" t="s">
-        <v>1658</v>
+        <v>1655</v>
       </c>
       <c r="K280" t="s">
         <v>424</v>
@@ -13416,7 +13386,7 @@
         <v>14</v>
       </c>
       <c r="J281" t="s">
-        <v>1664</v>
+        <v>1661</v>
       </c>
       <c r="K281" t="s">
         <v>466</v>
@@ -13442,7 +13412,7 @@
         <v>14</v>
       </c>
       <c r="J282" t="s">
-        <v>1727</v>
+        <v>1724</v>
       </c>
       <c r="K282" t="s">
         <v>1137</v>
@@ -13468,7 +13438,7 @@
         <v>14</v>
       </c>
       <c r="J283" t="s">
-        <v>1662</v>
+        <v>1659</v>
       </c>
       <c r="K283" t="s">
         <v>435</v>
@@ -13494,7 +13464,7 @@
         <v>14</v>
       </c>
       <c r="J284" t="s">
-        <v>1594</v>
+        <v>1591</v>
       </c>
       <c r="K284" t="s">
         <v>118</v>
@@ -13520,7 +13490,7 @@
         <v>290</v>
       </c>
       <c r="J285" t="s">
-        <v>1646</v>
+        <v>1643</v>
       </c>
       <c r="K285" t="s">
         <v>291</v>
@@ -13571,7 +13541,7 @@
         <v>1270</v>
       </c>
       <c r="D288" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="E288" t="s">
         <v>812</v>
@@ -13605,7 +13575,7 @@
         <v>1317</v>
       </c>
       <c r="D290" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="E290" t="s">
         <v>809</v>
@@ -13656,7 +13626,7 @@
         <v>1275</v>
       </c>
       <c r="D293" t="s">
-        <v>1572</v>
+        <v>1569</v>
       </c>
       <c r="E293" t="s">
         <v>1194</v>
@@ -13682,7 +13652,7 @@
         <v>14</v>
       </c>
       <c r="J294" t="s">
-        <v>1693</v>
+        <v>1690</v>
       </c>
       <c r="K294" t="s">
         <v>836</v>
@@ -13708,7 +13678,7 @@
         <v>14</v>
       </c>
       <c r="J295" t="s">
-        <v>1678</v>
+        <v>1675</v>
       </c>
       <c r="K295" t="s">
         <v>687</v>
@@ -13786,7 +13756,7 @@
         <v>797</v>
       </c>
       <c r="J298" t="s">
-        <v>1688</v>
+        <v>1685</v>
       </c>
       <c r="K298" t="s">
         <v>798</v>
@@ -13812,7 +13782,7 @@
         <v>14</v>
       </c>
       <c r="J299" t="s">
-        <v>1612</v>
+        <v>1609</v>
       </c>
       <c r="K299" t="s">
         <v>586</v>
@@ -13838,7 +13808,7 @@
         <v>147</v>
       </c>
       <c r="J300" t="s">
-        <v>1633</v>
+        <v>1630</v>
       </c>
       <c r="K300" t="s">
         <v>148</v>
@@ -13864,7 +13834,7 @@
         <v>14</v>
       </c>
       <c r="J301" t="s">
-        <v>1591</v>
+        <v>1588</v>
       </c>
       <c r="K301" t="s">
         <v>106</v>
@@ -13890,7 +13860,7 @@
         <v>14</v>
       </c>
       <c r="J302" t="s">
-        <v>1611</v>
+        <v>1608</v>
       </c>
       <c r="K302" t="s">
         <v>517</v>
@@ -13941,7 +13911,7 @@
         <v>1268</v>
       </c>
       <c r="D305" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="E305" t="s">
         <v>855</v>
@@ -13958,7 +13928,7 @@
         <v>1268</v>
       </c>
       <c r="D306" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="E306" t="s">
         <v>997</v>
@@ -13984,7 +13954,7 @@
         <v>303</v>
       </c>
       <c r="J307" t="s">
-        <v>1602</v>
+        <v>1599</v>
       </c>
       <c r="K307" t="s">
         <v>304</v>
@@ -14010,7 +13980,7 @@
         <v>14</v>
       </c>
       <c r="J308" t="s">
-        <v>1601</v>
+        <v>1598</v>
       </c>
       <c r="K308" t="s">
         <v>311</v>
@@ -14036,7 +14006,7 @@
         <v>14</v>
       </c>
       <c r="J309" t="s">
-        <v>1624</v>
+        <v>1621</v>
       </c>
       <c r="K309" t="s">
         <v>957</v>
@@ -14062,7 +14032,7 @@
         <v>1088</v>
       </c>
       <c r="J310" t="s">
-        <v>1722</v>
+        <v>1719</v>
       </c>
       <c r="K310" t="s">
         <v>1089</v>
@@ -14088,7 +14058,7 @@
         <v>157</v>
       </c>
       <c r="J311" t="s">
-        <v>1635</v>
+        <v>1632</v>
       </c>
       <c r="K311" t="s">
         <v>158</v>
@@ -14114,7 +14084,7 @@
         <v>1032</v>
       </c>
       <c r="J312" t="s">
-        <v>1717</v>
+        <v>1714</v>
       </c>
       <c r="K312" t="s">
         <v>1033</v>
@@ -14140,7 +14110,7 @@
         <v>1037</v>
       </c>
       <c r="J313" t="s">
-        <v>1626</v>
+        <v>1623</v>
       </c>
       <c r="K313" t="s">
         <v>1038</v>
@@ -14166,7 +14136,7 @@
         <v>14</v>
       </c>
       <c r="J314" t="s">
-        <v>1715</v>
+        <v>1712</v>
       </c>
       <c r="K314" t="s">
         <v>1019</v>
@@ -14192,7 +14162,7 @@
         <v>14</v>
       </c>
       <c r="J315" t="s">
-        <v>1729</v>
+        <v>1726</v>
       </c>
       <c r="K315" t="s">
         <v>1158</v>
@@ -14218,7 +14188,7 @@
         <v>14</v>
       </c>
       <c r="J316" t="s">
-        <v>1666</v>
+        <v>1663</v>
       </c>
       <c r="K316" t="s">
         <v>478</v>
@@ -14244,7 +14214,7 @@
         <v>14</v>
       </c>
       <c r="J317" t="s">
-        <v>1699</v>
+        <v>1696</v>
       </c>
       <c r="K317" t="s">
         <v>919</v>
@@ -14304,7 +14274,7 @@
         <v>14</v>
       </c>
       <c r="J320" t="s">
-        <v>1642</v>
+        <v>1639</v>
       </c>
       <c r="K320" t="s">
         <v>235</v>
@@ -14330,7 +14300,7 @@
         <v>14</v>
       </c>
       <c r="J321" t="s">
-        <v>1582</v>
+        <v>1579</v>
       </c>
       <c r="K321" t="s">
         <v>25</v>
@@ -14356,7 +14326,7 @@
         <v>14</v>
       </c>
       <c r="J322" t="s">
-        <v>1643</v>
+        <v>1640</v>
       </c>
       <c r="K322" t="s">
         <v>275</v>
@@ -14382,7 +14352,7 @@
         <v>31</v>
       </c>
       <c r="J323" t="s">
-        <v>1583</v>
+        <v>1580</v>
       </c>
       <c r="K323" t="s">
         <v>32</v>
@@ -14433,7 +14403,7 @@
         <v>1267</v>
       </c>
       <c r="D326" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="E326" t="s">
         <v>474</v>
@@ -14450,7 +14420,7 @@
         <v>1332</v>
       </c>
       <c r="D327" t="s">
-        <v>1563</v>
+        <v>1560</v>
       </c>
       <c r="E327" t="s">
         <v>1073</v>
@@ -14476,7 +14446,7 @@
         <v>1024</v>
       </c>
       <c r="J328" t="s">
-        <v>1715</v>
+        <v>1712</v>
       </c>
       <c r="K328" t="s">
         <v>1019</v>
@@ -14502,7 +14472,7 @@
         <v>1027</v>
       </c>
       <c r="J329" t="s">
-        <v>1716</v>
+        <v>1713</v>
       </c>
       <c r="K329" t="s">
         <v>1028</v>
@@ -14528,7 +14498,7 @@
         <v>14</v>
       </c>
       <c r="J330" t="s">
-        <v>1698</v>
+        <v>1695</v>
       </c>
       <c r="K330" t="s">
         <v>916</v>
@@ -14554,7 +14524,7 @@
         <v>14</v>
       </c>
       <c r="J331" t="s">
-        <v>1609</v>
+        <v>1606</v>
       </c>
       <c r="K331" t="s">
         <v>440</v>
@@ -14588,7 +14558,7 @@
         <v>1327</v>
       </c>
       <c r="D333" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="E333" t="s">
         <v>1005</v>
@@ -14614,7 +14584,7 @@
         <v>433</v>
       </c>
       <c r="J334" t="s">
-        <v>1661</v>
+        <v>1658</v>
       </c>
       <c r="K334" t="s">
         <v>203</v>
@@ -14640,7 +14610,7 @@
         <v>152</v>
       </c>
       <c r="J335" t="s">
-        <v>1634</v>
+        <v>1631</v>
       </c>
       <c r="K335" t="s">
         <v>153</v>
@@ -14666,7 +14636,7 @@
         <v>14</v>
       </c>
       <c r="J336" t="s">
-        <v>1607</v>
+        <v>1604</v>
       </c>
       <c r="K336" t="s">
         <v>393</v>
@@ -14717,7 +14687,7 @@
         <v>1299</v>
       </c>
       <c r="D339" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="E339" t="s">
         <v>541</v>
@@ -14743,7 +14713,7 @@
         <v>14</v>
       </c>
       <c r="J340" t="s">
-        <v>1598</v>
+        <v>1595</v>
       </c>
       <c r="K340" t="s">
         <v>203</v>
@@ -14769,7 +14739,7 @@
         <v>601</v>
       </c>
       <c r="J341" t="s">
-        <v>1613</v>
+        <v>1610</v>
       </c>
       <c r="K341" t="s">
         <v>602</v>
@@ -14922,7 +14892,7 @@
         <v>1274</v>
       </c>
       <c r="D350" t="s">
-        <v>1564</v>
+        <v>1561</v>
       </c>
       <c r="E350" t="s">
         <v>1121</v>
@@ -14939,7 +14909,7 @@
         <v>1319</v>
       </c>
       <c r="D351" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="E351" t="s">
         <v>848</v>
@@ -14956,7 +14926,7 @@
         <v>1319</v>
       </c>
       <c r="D352" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="E352" t="s">
         <v>850</v>
@@ -15001,61 +14971,61 @@
     </row>
     <row r="355" spans="1:12">
       <c r="A355" t="s">
-        <v>1780</v>
+        <v>1777</v>
       </c>
       <c r="B355" t="s">
-        <v>1781</v>
+        <v>1778</v>
       </c>
       <c r="D355" t="s">
-        <v>1812</v>
+        <v>2264</v>
       </c>
       <c r="E355" t="s">
-        <v>1780</v>
+        <v>1777</v>
       </c>
       <c r="F355" t="s">
-        <v>1782</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="356" spans="1:12">
       <c r="A356" t="s">
+        <v>1792</v>
+      </c>
+      <c r="B356" t="s">
+        <v>1778</v>
+      </c>
+      <c r="D356" t="s">
         <v>1795</v>
       </c>
-      <c r="B356" t="s">
-        <v>1781</v>
-      </c>
-      <c r="D356" t="s">
-        <v>1817</v>
-      </c>
       <c r="E356" t="s">
-        <v>1796</v>
+        <v>1793</v>
       </c>
       <c r="F356" t="s">
-        <v>1797</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="357" spans="1:12">
       <c r="A357" t="s">
+        <v>1780</v>
+      </c>
+      <c r="B357" t="s">
+        <v>1781</v>
+      </c>
+      <c r="D357" t="s">
+        <v>2265</v>
+      </c>
+      <c r="E357" t="s">
+        <v>1782</v>
+      </c>
+      <c r="F357" t="s">
         <v>1783</v>
-      </c>
-      <c r="B357" t="s">
-        <v>1784</v>
-      </c>
-      <c r="D357" t="s">
-        <v>1813</v>
-      </c>
-      <c r="E357" t="s">
-        <v>1785</v>
-      </c>
-      <c r="F357" t="s">
-        <v>1786</v>
       </c>
     </row>
     <row r="358" spans="1:12">
       <c r="A358" t="s">
-        <v>1734</v>
+        <v>1731</v>
       </c>
       <c r="B358" t="s">
-        <v>1735</v>
+        <v>1732</v>
       </c>
       <c r="D358" t="s">
         <v>14</v>
@@ -15067,398 +15037,398 @@
         <v>14</v>
       </c>
       <c r="J358" t="s">
-        <v>1818</v>
+        <v>1796</v>
       </c>
       <c r="K358" t="s">
-        <v>1734</v>
+        <v>1731</v>
       </c>
       <c r="L358" t="s">
-        <v>1736</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="359" spans="1:12">
       <c r="A359" t="s">
-        <v>1787</v>
+        <v>1784</v>
       </c>
       <c r="B359" t="s">
-        <v>1735</v>
+        <v>1732</v>
       </c>
       <c r="D359" t="s">
-        <v>1814</v>
+        <v>2266</v>
       </c>
       <c r="E359" t="s">
-        <v>1788</v>
+        <v>1785</v>
       </c>
       <c r="F359" t="s">
-        <v>1789</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="360" spans="1:12">
       <c r="A360" t="s">
-        <v>1790</v>
+        <v>1787</v>
       </c>
       <c r="B360" t="s">
-        <v>1735</v>
+        <v>1732</v>
       </c>
       <c r="D360" t="s">
-        <v>1815</v>
+        <v>2267</v>
       </c>
       <c r="E360" t="s">
-        <v>1790</v>
+        <v>1787</v>
       </c>
       <c r="F360" t="s">
-        <v>1791</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="361" spans="1:12">
       <c r="A361" t="s">
+        <v>1770</v>
+      </c>
+      <c r="B361" t="s">
+        <v>1771</v>
+      </c>
+      <c r="D361" t="s">
+        <v>2268</v>
+      </c>
+      <c r="E361" t="s">
+        <v>1772</v>
+      </c>
+      <c r="F361" t="s">
         <v>1773</v>
-      </c>
-      <c r="B361" t="s">
-        <v>1774</v>
-      </c>
-      <c r="D361" t="s">
-        <v>1810</v>
-      </c>
-      <c r="E361" t="s">
-        <v>1775</v>
-      </c>
-      <c r="F361" t="s">
-        <v>1776</v>
       </c>
     </row>
     <row r="362" spans="1:12">
       <c r="A362" t="s">
-        <v>1792</v>
+        <v>1789</v>
       </c>
       <c r="B362" t="s">
-        <v>1774</v>
+        <v>1771</v>
       </c>
       <c r="D362" t="s">
-        <v>1816</v>
+        <v>2269</v>
       </c>
       <c r="E362" t="s">
-        <v>1793</v>
+        <v>1790</v>
       </c>
       <c r="F362" t="s">
-        <v>1794</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="363" spans="1:12">
       <c r="A363" t="s">
-        <v>1761</v>
+        <v>1758</v>
       </c>
       <c r="B363" t="s">
-        <v>1762</v>
+        <v>1759</v>
       </c>
       <c r="D363" t="s">
-        <v>1806</v>
+        <v>2270</v>
       </c>
       <c r="E363" t="s">
-        <v>1761</v>
+        <v>1758</v>
       </c>
       <c r="F363" t="s">
-        <v>1763</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="364" spans="1:12">
       <c r="A364" t="s">
-        <v>1771</v>
+        <v>1768</v>
       </c>
       <c r="B364" t="s">
-        <v>1762</v>
+        <v>1759</v>
       </c>
       <c r="D364" t="s">
-        <v>1809</v>
+        <v>2271</v>
       </c>
       <c r="E364" t="s">
-        <v>1771</v>
+        <v>1768</v>
       </c>
       <c r="F364" t="s">
-        <v>1772</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="365" spans="1:12">
       <c r="A365" t="s">
-        <v>1777</v>
+        <v>1774</v>
       </c>
       <c r="B365" t="s">
-        <v>1762</v>
+        <v>1759</v>
       </c>
       <c r="D365" t="s">
-        <v>1811</v>
+        <v>2272</v>
       </c>
       <c r="E365" t="s">
-        <v>1778</v>
+        <v>1775</v>
       </c>
       <c r="F365" t="s">
-        <v>1779</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="366" spans="1:12">
       <c r="A366" t="s">
+        <v>1761</v>
+      </c>
+      <c r="B366" t="s">
+        <v>1762</v>
+      </c>
+      <c r="D366" t="s">
+        <v>2273</v>
+      </c>
+      <c r="E366" t="s">
+        <v>1763</v>
+      </c>
+      <c r="F366" t="s">
         <v>1764</v>
-      </c>
-      <c r="B366" t="s">
-        <v>1765</v>
-      </c>
-      <c r="D366" t="s">
-        <v>1807</v>
-      </c>
-      <c r="E366" t="s">
-        <v>1766</v>
-      </c>
-      <c r="F366" t="s">
-        <v>1767</v>
       </c>
     </row>
     <row r="367" spans="1:12">
       <c r="A367" t="s">
-        <v>1768</v>
+        <v>1765</v>
       </c>
       <c r="B367" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
       <c r="D367" t="s">
-        <v>1808</v>
+        <v>2274</v>
       </c>
       <c r="E367" t="s">
-        <v>1769</v>
+        <v>1766</v>
       </c>
       <c r="F367" t="s">
-        <v>1770</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="368" spans="1:12">
       <c r="A368" t="s">
-        <v>1737</v>
+        <v>1734</v>
       </c>
       <c r="B368" t="s">
-        <v>1738</v>
+        <v>1735</v>
       </c>
       <c r="D368" t="s">
-        <v>1798</v>
+        <v>2275</v>
       </c>
       <c r="E368" t="s">
-        <v>1737</v>
+        <v>1734</v>
       </c>
       <c r="F368" t="s">
-        <v>1739</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="369" spans="1:12">
       <c r="A369" t="s">
-        <v>1740</v>
+        <v>1737</v>
       </c>
       <c r="B369" t="s">
+        <v>1735</v>
+      </c>
+      <c r="D369" t="s">
+        <v>2276</v>
+      </c>
+      <c r="E369" t="s">
         <v>1738</v>
       </c>
-      <c r="D369" t="s">
-        <v>1799</v>
-      </c>
-      <c r="E369" t="s">
-        <v>1741</v>
-      </c>
       <c r="F369" t="s">
-        <v>1742</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="370" spans="1:12">
       <c r="A370" t="s">
-        <v>1743</v>
+        <v>1740</v>
       </c>
       <c r="B370" t="s">
-        <v>1738</v>
+        <v>1735</v>
       </c>
       <c r="D370" t="s">
-        <v>1800</v>
+        <v>2277</v>
       </c>
       <c r="E370" t="s">
-        <v>1744</v>
+        <v>1741</v>
       </c>
       <c r="F370" t="s">
-        <v>1745</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="371" spans="1:12">
       <c r="A371" t="s">
-        <v>1746</v>
+        <v>1743</v>
       </c>
       <c r="B371" t="s">
-        <v>1738</v>
+        <v>1735</v>
       </c>
       <c r="D371" t="s">
-        <v>1801</v>
+        <v>2278</v>
       </c>
       <c r="E371" t="s">
-        <v>1747</v>
+        <v>1744</v>
       </c>
       <c r="F371" t="s">
-        <v>1748</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="372" spans="1:12">
       <c r="A372" t="s">
-        <v>1749</v>
+        <v>1746</v>
       </c>
       <c r="B372" t="s">
-        <v>1738</v>
+        <v>1735</v>
       </c>
       <c r="D372" t="s">
-        <v>1802</v>
+        <v>2279</v>
       </c>
       <c r="E372" t="s">
-        <v>1750</v>
+        <v>1747</v>
       </c>
       <c r="F372" t="s">
-        <v>1751</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="373" spans="1:12">
       <c r="A373" t="s">
-        <v>1752</v>
+        <v>1749</v>
       </c>
       <c r="B373" t="s">
-        <v>1738</v>
+        <v>1735</v>
       </c>
       <c r="D373" t="s">
-        <v>1803</v>
+        <v>2280</v>
       </c>
       <c r="E373" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="F373" t="s">
-        <v>1754</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="374" spans="1:12">
       <c r="A374" t="s">
-        <v>1755</v>
+        <v>1752</v>
       </c>
       <c r="B374" t="s">
-        <v>1738</v>
+        <v>1735</v>
       </c>
       <c r="D374" t="s">
-        <v>1804</v>
+        <v>2281</v>
       </c>
       <c r="E374" t="s">
-        <v>1756</v>
+        <v>1753</v>
       </c>
       <c r="F374" t="s">
-        <v>1757</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="375" spans="1:12">
       <c r="A375" t="s">
-        <v>1758</v>
+        <v>1755</v>
       </c>
       <c r="B375" t="s">
-        <v>1738</v>
+        <v>1735</v>
       </c>
       <c r="D375" t="s">
-        <v>1805</v>
+        <v>2282</v>
       </c>
       <c r="E375" t="s">
-        <v>1759</v>
+        <v>1756</v>
       </c>
       <c r="F375" t="s">
-        <v>1760</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="376" spans="1:12">
       <c r="A376" t="s">
-        <v>1819</v>
+        <v>1797</v>
       </c>
       <c r="B376" t="s">
-        <v>1820</v>
+        <v>1798</v>
       </c>
       <c r="D376" t="s">
-        <v>1929</v>
+        <v>2283</v>
       </c>
       <c r="E376" t="s">
-        <v>1821</v>
+        <v>1799</v>
       </c>
       <c r="F376" t="s">
-        <v>1822</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="377" spans="1:12">
       <c r="A377" t="s">
-        <v>1823</v>
+        <v>1801</v>
       </c>
       <c r="B377" t="s">
-        <v>1824</v>
+        <v>1802</v>
       </c>
       <c r="D377" t="s">
-        <v>1930</v>
+        <v>2284</v>
       </c>
       <c r="E377" t="s">
-        <v>1825</v>
+        <v>1803</v>
       </c>
       <c r="F377" t="s">
-        <v>1826</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="378" spans="1:12">
       <c r="A378" t="s">
-        <v>1827</v>
+        <v>1805</v>
       </c>
       <c r="B378" t="s">
-        <v>1824</v>
+        <v>1802</v>
       </c>
       <c r="D378" t="s">
-        <v>1931</v>
+        <v>2285</v>
       </c>
       <c r="E378" t="s">
-        <v>1828</v>
+        <v>1806</v>
       </c>
       <c r="F378" t="s">
-        <v>1829</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="379" spans="1:12">
       <c r="A379" t="s">
-        <v>1830</v>
+        <v>1808</v>
       </c>
       <c r="B379" t="s">
-        <v>1824</v>
+        <v>1802</v>
       </c>
       <c r="D379" t="s">
-        <v>1932</v>
+        <v>2286</v>
       </c>
       <c r="E379" t="s">
-        <v>1831</v>
+        <v>1809</v>
       </c>
       <c r="F379" t="s">
-        <v>1832</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="380" spans="1:12">
       <c r="A380" t="s">
-        <v>1833</v>
+        <v>1811</v>
       </c>
       <c r="B380" t="s">
-        <v>1834</v>
+        <v>1812</v>
       </c>
       <c r="D380" t="s">
-        <v>1933</v>
+        <v>2287</v>
       </c>
       <c r="E380" t="s">
-        <v>1835</v>
+        <v>1813</v>
       </c>
       <c r="F380" t="s">
-        <v>1836</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="381" spans="1:12">
       <c r="A381" t="s">
-        <v>1837</v>
+        <v>1815</v>
       </c>
       <c r="B381" t="s">
-        <v>1838</v>
+        <v>1816</v>
       </c>
       <c r="D381" t="s">
-        <v>1934</v>
+        <v>14</v>
       </c>
       <c r="E381" t="s">
         <v>14</v>
@@ -15467,212 +15437,212 @@
         <v>14</v>
       </c>
       <c r="J381" t="s">
-        <v>2284</v>
+        <v>2197</v>
       </c>
       <c r="K381" t="s">
-        <v>1839</v>
+        <v>1817</v>
       </c>
       <c r="L381" t="s">
-        <v>1840</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="382" spans="1:12">
       <c r="A382" t="s">
-        <v>1841</v>
+        <v>1819</v>
       </c>
       <c r="B382" t="s">
-        <v>1842</v>
+        <v>1820</v>
       </c>
       <c r="D382" t="s">
-        <v>1935</v>
+        <v>2288</v>
       </c>
       <c r="E382" t="s">
-        <v>1841</v>
+        <v>1819</v>
       </c>
       <c r="F382" t="s">
-        <v>1843</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="383" spans="1:12">
       <c r="A383" t="s">
-        <v>1844</v>
+        <v>1822</v>
       </c>
       <c r="B383" t="s">
-        <v>1845</v>
+        <v>1823</v>
       </c>
       <c r="D383" t="s">
-        <v>1936</v>
+        <v>2289</v>
       </c>
       <c r="E383" t="s">
-        <v>1844</v>
+        <v>1822</v>
       </c>
       <c r="F383" t="s">
-        <v>1846</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="384" spans="1:12">
       <c r="A384" t="s">
-        <v>1847</v>
+        <v>1825</v>
       </c>
       <c r="B384" t="s">
-        <v>1845</v>
+        <v>1823</v>
       </c>
       <c r="D384" t="s">
-        <v>1937</v>
+        <v>2290</v>
       </c>
       <c r="E384" t="s">
-        <v>1848</v>
+        <v>1826</v>
       </c>
       <c r="F384" t="s">
-        <v>1849</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="385" spans="1:12">
       <c r="A385" t="s">
-        <v>1854</v>
+        <v>1832</v>
       </c>
       <c r="B385" t="s">
-        <v>1851</v>
+        <v>1829</v>
       </c>
       <c r="D385" t="s">
-        <v>1939</v>
+        <v>1833</v>
       </c>
       <c r="E385" t="s">
-        <v>1855</v>
+        <v>1833</v>
       </c>
       <c r="F385" t="s">
-        <v>1856</v>
+        <v>1834</v>
       </c>
       <c r="J385" t="s">
-        <v>2288</v>
+        <v>2201</v>
       </c>
       <c r="K385" t="s">
-        <v>1857</v>
+        <v>1835</v>
       </c>
       <c r="L385" t="s">
-        <v>1858</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="386" spans="1:12">
       <c r="A386" t="s">
-        <v>1850</v>
+        <v>1828</v>
       </c>
       <c r="B386" t="s">
-        <v>1851</v>
+        <v>1829</v>
       </c>
       <c r="D386" t="s">
-        <v>1938</v>
+        <v>2291</v>
       </c>
       <c r="E386" t="s">
-        <v>1852</v>
+        <v>1830</v>
       </c>
       <c r="F386" t="s">
-        <v>1853</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="387" spans="1:12">
       <c r="A387" t="s">
-        <v>1859</v>
+        <v>1837</v>
       </c>
       <c r="B387" t="s">
-        <v>1851</v>
+        <v>1829</v>
       </c>
       <c r="D387" t="s">
-        <v>1940</v>
+        <v>1838</v>
       </c>
       <c r="E387" t="s">
-        <v>1860</v>
+        <v>1838</v>
       </c>
       <c r="F387" t="s">
-        <v>1861</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="388" spans="1:12">
       <c r="A388" t="s">
-        <v>1862</v>
+        <v>1840</v>
       </c>
       <c r="B388" t="s">
-        <v>1863</v>
+        <v>1841</v>
       </c>
       <c r="D388" t="s">
-        <v>1941</v>
+        <v>2292</v>
       </c>
       <c r="E388" t="s">
-        <v>1864</v>
+        <v>1842</v>
       </c>
       <c r="F388" t="s">
-        <v>1865</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="389" spans="1:12">
       <c r="A389" t="s">
-        <v>1866</v>
+        <v>1844</v>
       </c>
       <c r="B389" t="s">
-        <v>1867</v>
+        <v>1845</v>
       </c>
       <c r="D389" t="s">
-        <v>1942</v>
+        <v>2293</v>
       </c>
       <c r="E389" t="s">
-        <v>1868</v>
+        <v>1846</v>
       </c>
       <c r="F389" t="s">
-        <v>1869</v>
+        <v>1847</v>
       </c>
       <c r="J389" t="s">
-        <v>2291</v>
+        <v>2204</v>
       </c>
       <c r="K389" t="s">
-        <v>1870</v>
+        <v>1848</v>
       </c>
       <c r="L389" t="s">
-        <v>1871</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="390" spans="1:12">
       <c r="A390" t="s">
-        <v>1872</v>
+        <v>1850</v>
       </c>
       <c r="B390" t="s">
-        <v>1873</v>
+        <v>1851</v>
       </c>
       <c r="D390" t="s">
-        <v>1943</v>
+        <v>2294</v>
       </c>
       <c r="E390" t="s">
-        <v>1872</v>
+        <v>1850</v>
       </c>
       <c r="F390" t="s">
-        <v>1874</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="391" spans="1:12">
       <c r="A391" t="s">
-        <v>1875</v>
+        <v>1853</v>
       </c>
       <c r="B391" t="s">
-        <v>1876</v>
+        <v>1854</v>
       </c>
       <c r="D391" t="s">
-        <v>1944</v>
+        <v>2295</v>
       </c>
       <c r="E391" t="s">
-        <v>1877</v>
+        <v>1855</v>
       </c>
       <c r="F391" t="s">
-        <v>1878</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="392" spans="1:12">
       <c r="A392" t="s">
-        <v>1883</v>
+        <v>1861</v>
       </c>
       <c r="B392" t="s">
-        <v>1880</v>
+        <v>1858</v>
       </c>
       <c r="D392" t="s">
-        <v>1934</v>
+        <v>14</v>
       </c>
       <c r="E392" t="s">
         <v>14</v>
@@ -15681,47 +15651,47 @@
         <v>14</v>
       </c>
       <c r="J392" t="s">
-        <v>2283</v>
+        <v>2196</v>
       </c>
       <c r="K392" t="s">
-        <v>1884</v>
+        <v>1862</v>
       </c>
       <c r="L392" t="s">
-        <v>1885</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="393" spans="1:12">
       <c r="A393" t="s">
-        <v>1879</v>
+        <v>1857</v>
       </c>
       <c r="B393" t="s">
-        <v>1880</v>
+        <v>1858</v>
       </c>
       <c r="D393" t="s">
-        <v>1945</v>
+        <v>2296</v>
       </c>
       <c r="E393" t="s">
-        <v>1881</v>
+        <v>1859</v>
       </c>
       <c r="F393" t="s">
-        <v>1882</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="394" spans="1:12">
       <c r="A394" t="s">
-        <v>1886</v>
+        <v>1864</v>
       </c>
       <c r="B394" t="s">
-        <v>1880</v>
+        <v>1858</v>
       </c>
       <c r="D394" t="s">
-        <v>1946</v>
+        <v>2297</v>
       </c>
       <c r="E394" t="s">
-        <v>1887</v>
+        <v>1865</v>
       </c>
       <c r="F394" t="s">
-        <v>1888</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="395" spans="1:12">
@@ -15729,10 +15699,10 @@
         <v>1237</v>
       </c>
       <c r="B395" t="s">
-        <v>1889</v>
+        <v>1867</v>
       </c>
       <c r="D395" t="s">
-        <v>1947</v>
+        <v>1238</v>
       </c>
       <c r="E395" t="s">
         <v>1238</v>
@@ -15741,13 +15711,13 @@
         <v>1239</v>
       </c>
       <c r="J395" t="s">
-        <v>2286</v>
+        <v>2199</v>
       </c>
       <c r="K395" t="s">
         <v>1240</v>
       </c>
       <c r="L395" t="s">
-        <v>1890</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="396" spans="1:12">
@@ -15755,10 +15725,10 @@
         <v>844</v>
       </c>
       <c r="B396" t="s">
-        <v>1889</v>
+        <v>1867</v>
       </c>
       <c r="D396" t="s">
-        <v>1934</v>
+        <v>14</v>
       </c>
       <c r="E396" t="s">
         <v>14</v>
@@ -15767,7 +15737,7 @@
         <v>14</v>
       </c>
       <c r="J396" t="s">
-        <v>2287</v>
+        <v>2200</v>
       </c>
       <c r="K396" t="s">
         <v>844</v>
@@ -15778,954 +15748,954 @@
     </row>
     <row r="397" spans="1:12">
       <c r="A397" t="s">
-        <v>1891</v>
+        <v>1869</v>
       </c>
       <c r="B397" t="s">
-        <v>1892</v>
+        <v>1870</v>
       </c>
       <c r="D397" t="s">
-        <v>1948</v>
+        <v>2298</v>
       </c>
       <c r="E397" t="s">
-        <v>1893</v>
+        <v>1871</v>
       </c>
       <c r="F397" t="s">
-        <v>1894</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="398" spans="1:12">
       <c r="A398" t="s">
-        <v>1895</v>
+        <v>1873</v>
       </c>
       <c r="B398" t="s">
-        <v>1892</v>
+        <v>1870</v>
       </c>
       <c r="D398" t="s">
-        <v>1949</v>
+        <v>1874</v>
       </c>
       <c r="E398" t="s">
-        <v>1896</v>
+        <v>1874</v>
       </c>
       <c r="F398" t="s">
-        <v>1897</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="399" spans="1:12">
       <c r="A399" t="s">
-        <v>1898</v>
+        <v>1876</v>
       </c>
       <c r="B399" t="s">
-        <v>1899</v>
+        <v>1877</v>
       </c>
       <c r="D399" t="s">
-        <v>1950</v>
+        <v>2299</v>
       </c>
       <c r="E399" t="s">
-        <v>1898</v>
+        <v>1876</v>
       </c>
       <c r="F399" t="s">
-        <v>1900</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="400" spans="1:12">
       <c r="A400" t="s">
-        <v>1901</v>
+        <v>1879</v>
       </c>
       <c r="B400" t="s">
-        <v>1899</v>
+        <v>1877</v>
       </c>
       <c r="D400" t="s">
-        <v>1951</v>
+        <v>1880</v>
       </c>
       <c r="E400" t="s">
-        <v>1902</v>
+        <v>1880</v>
       </c>
       <c r="F400" t="s">
-        <v>1903</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="401" spans="1:12">
       <c r="A401" t="s">
-        <v>1904</v>
+        <v>1882</v>
       </c>
       <c r="B401" t="s">
-        <v>1905</v>
+        <v>1883</v>
       </c>
       <c r="D401" t="s">
-        <v>1952</v>
+        <v>2300</v>
       </c>
       <c r="E401" t="s">
-        <v>1906</v>
+        <v>1884</v>
       </c>
       <c r="F401" t="s">
-        <v>1907</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="402" spans="1:12">
       <c r="A402" t="s">
-        <v>1914</v>
+        <v>1892</v>
       </c>
       <c r="B402" t="s">
-        <v>1909</v>
+        <v>1887</v>
       </c>
       <c r="D402" t="s">
-        <v>1954</v>
+        <v>1893</v>
       </c>
       <c r="E402" t="s">
-        <v>1915</v>
+        <v>1893</v>
       </c>
       <c r="F402" t="s">
-        <v>1916</v>
+        <v>1894</v>
       </c>
       <c r="J402" t="s">
-        <v>2285</v>
+        <v>2198</v>
       </c>
       <c r="K402" t="s">
-        <v>1917</v>
+        <v>1895</v>
       </c>
       <c r="L402" t="s">
-        <v>1918</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="403" spans="1:12">
       <c r="A403" t="s">
-        <v>1919</v>
+        <v>1897</v>
       </c>
       <c r="B403" t="s">
-        <v>1909</v>
+        <v>1887</v>
       </c>
       <c r="D403" t="s">
-        <v>1955</v>
+        <v>1898</v>
       </c>
       <c r="E403" t="s">
-        <v>1920</v>
+        <v>1898</v>
       </c>
       <c r="F403" t="s">
-        <v>1921</v>
+        <v>1899</v>
       </c>
       <c r="J403" t="s">
-        <v>2223</v>
+        <v>2141</v>
       </c>
       <c r="K403" t="s">
-        <v>1922</v>
+        <v>1900</v>
       </c>
       <c r="L403" t="s">
-        <v>1923</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="404" spans="1:12">
       <c r="A404" t="s">
-        <v>1924</v>
+        <v>1902</v>
       </c>
       <c r="B404" t="s">
-        <v>1909</v>
+        <v>1887</v>
       </c>
       <c r="D404" t="s">
-        <v>1956</v>
+        <v>1903</v>
       </c>
       <c r="E404" t="s">
-        <v>1925</v>
+        <v>1903</v>
       </c>
       <c r="F404" t="s">
-        <v>1926</v>
+        <v>1904</v>
       </c>
       <c r="J404" t="s">
-        <v>2289</v>
+        <v>2202</v>
       </c>
       <c r="K404" t="s">
-        <v>1927</v>
+        <v>1905</v>
       </c>
       <c r="L404" t="s">
-        <v>1928</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="405" spans="1:12">
       <c r="A405" t="s">
-        <v>1908</v>
+        <v>1886</v>
       </c>
       <c r="B405" t="s">
-        <v>1909</v>
+        <v>1887</v>
       </c>
       <c r="D405" t="s">
-        <v>1953</v>
+        <v>1888</v>
       </c>
       <c r="E405" t="s">
-        <v>1910</v>
+        <v>1888</v>
       </c>
       <c r="F405" t="s">
-        <v>1911</v>
+        <v>1889</v>
       </c>
       <c r="J405" t="s">
-        <v>2290</v>
+        <v>2203</v>
       </c>
       <c r="K405" t="s">
-        <v>1912</v>
+        <v>1890</v>
       </c>
       <c r="L405" t="s">
-        <v>1913</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="406" spans="1:12">
       <c r="A406" t="s">
-        <v>1787</v>
+        <v>1784</v>
       </c>
       <c r="B406" t="s">
-        <v>1957</v>
+        <v>1907</v>
       </c>
       <c r="D406" t="s">
-        <v>1996</v>
+        <v>2246</v>
       </c>
       <c r="E406" t="s">
-        <v>1958</v>
+        <v>1908</v>
       </c>
       <c r="F406" t="s">
-        <v>1959</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="407" spans="1:12">
       <c r="A407" t="s">
-        <v>1960</v>
+        <v>1910</v>
       </c>
       <c r="B407" t="s">
-        <v>1957</v>
+        <v>1907</v>
       </c>
       <c r="D407" t="s">
-        <v>1997</v>
+        <v>2247</v>
       </c>
       <c r="E407" t="s">
-        <v>1961</v>
+        <v>1911</v>
       </c>
       <c r="F407" t="s">
-        <v>1962</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="408" spans="1:12">
       <c r="A408" t="s">
-        <v>1963</v>
+        <v>1913</v>
       </c>
       <c r="B408" t="s">
-        <v>1964</v>
+        <v>1914</v>
       </c>
       <c r="D408" t="s">
-        <v>1998</v>
+        <v>2248</v>
       </c>
       <c r="E408" t="s">
-        <v>1966</v>
+        <v>1916</v>
       </c>
       <c r="F408" t="s">
-        <v>1965</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="409" spans="1:12">
       <c r="A409" t="s">
-        <v>1967</v>
+        <v>1917</v>
       </c>
       <c r="B409" t="s">
-        <v>1968</v>
+        <v>1918</v>
       </c>
       <c r="D409" t="s">
-        <v>1999</v>
+        <v>2249</v>
       </c>
       <c r="E409" t="s">
-        <v>1967</v>
+        <v>1917</v>
       </c>
       <c r="F409" t="s">
-        <v>1969</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="410" spans="1:12">
       <c r="A410" t="s">
-        <v>1970</v>
+        <v>1920</v>
       </c>
       <c r="B410" t="s">
-        <v>1971</v>
+        <v>1921</v>
       </c>
       <c r="D410" t="s">
-        <v>2000</v>
+        <v>2250</v>
       </c>
       <c r="E410" t="s">
-        <v>1972</v>
+        <v>1922</v>
       </c>
       <c r="F410" t="s">
-        <v>1973</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="411" spans="1:12">
       <c r="A411" t="s">
-        <v>1974</v>
+        <v>1924</v>
       </c>
       <c r="B411" t="s">
-        <v>1975</v>
+        <v>1925</v>
       </c>
       <c r="D411" t="s">
-        <v>2001</v>
+        <v>2251</v>
       </c>
       <c r="E411" t="s">
-        <v>1976</v>
+        <v>1926</v>
       </c>
       <c r="F411" t="s">
-        <v>1977</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="412" spans="1:12">
       <c r="A412" t="s">
-        <v>1978</v>
+        <v>1928</v>
       </c>
       <c r="B412" t="s">
-        <v>1979</v>
+        <v>1929</v>
       </c>
       <c r="D412" t="s">
-        <v>1980</v>
+        <v>1930</v>
       </c>
       <c r="E412" t="s">
-        <v>1980</v>
+        <v>1930</v>
       </c>
       <c r="F412" t="s">
-        <v>1981</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="413" spans="1:12">
       <c r="A413" t="s">
-        <v>1982</v>
+        <v>1932</v>
       </c>
       <c r="B413" t="s">
-        <v>1983</v>
+        <v>1933</v>
       </c>
       <c r="D413" t="s">
-        <v>2002</v>
+        <v>2252</v>
       </c>
       <c r="E413" t="s">
-        <v>1984</v>
+        <v>1934</v>
       </c>
       <c r="F413" t="s">
-        <v>1985</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="414" spans="1:12">
       <c r="A414" t="s">
-        <v>1986</v>
+        <v>1936</v>
       </c>
       <c r="B414" t="s">
-        <v>1983</v>
+        <v>1933</v>
       </c>
       <c r="D414" t="s">
-        <v>2003</v>
+        <v>2253</v>
       </c>
       <c r="E414" t="s">
-        <v>1987</v>
+        <v>1937</v>
       </c>
       <c r="F414" t="s">
-        <v>1988</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="415" spans="1:12">
       <c r="A415" t="s">
-        <v>1989</v>
+        <v>1939</v>
       </c>
       <c r="B415" t="s">
-        <v>1990</v>
+        <v>1940</v>
       </c>
       <c r="D415" t="s">
-        <v>2004</v>
+        <v>2254</v>
       </c>
       <c r="E415" t="s">
-        <v>1991</v>
+        <v>1941</v>
       </c>
       <c r="F415" t="s">
-        <v>1992</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="416" spans="1:12">
       <c r="A416" t="s">
-        <v>1993</v>
+        <v>1943</v>
       </c>
       <c r="B416" t="s">
-        <v>1990</v>
+        <v>1940</v>
       </c>
       <c r="D416" t="s">
-        <v>1994</v>
+        <v>1944</v>
       </c>
       <c r="E416" t="s">
-        <v>1994</v>
+        <v>1944</v>
       </c>
       <c r="F416" t="s">
-        <v>1995</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="417" spans="1:12">
       <c r="A417" t="s">
-        <v>2005</v>
+        <v>1946</v>
       </c>
       <c r="B417" t="s">
-        <v>2006</v>
+        <v>1947</v>
       </c>
       <c r="D417" t="s">
-        <v>2199</v>
+        <v>2255</v>
       </c>
       <c r="E417" t="s">
-        <v>2007</v>
+        <v>1948</v>
       </c>
       <c r="F417" t="s">
-        <v>2008</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="418" spans="1:12">
       <c r="A418" t="s">
-        <v>2009</v>
+        <v>1950</v>
       </c>
       <c r="B418" t="s">
-        <v>2010</v>
+        <v>1951</v>
       </c>
       <c r="D418" t="s">
-        <v>2200</v>
+        <v>2256</v>
       </c>
       <c r="E418" t="s">
-        <v>2011</v>
+        <v>1952</v>
       </c>
       <c r="F418" t="s">
-        <v>2012</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="419" spans="1:12">
       <c r="A419" t="s">
-        <v>2013</v>
+        <v>1954</v>
       </c>
       <c r="B419" t="s">
-        <v>2014</v>
+        <v>1955</v>
       </c>
       <c r="D419" t="s">
-        <v>2201</v>
+        <v>1518</v>
       </c>
       <c r="E419" t="s">
-        <v>2013</v>
+        <v>1954</v>
       </c>
       <c r="F419" t="s">
-        <v>2015</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="420" spans="1:12">
       <c r="A420" t="s">
-        <v>2016</v>
+        <v>1957</v>
       </c>
       <c r="B420" t="s">
-        <v>2014</v>
+        <v>1955</v>
       </c>
       <c r="D420" t="s">
-        <v>2202</v>
+        <v>2257</v>
       </c>
       <c r="E420" t="s">
-        <v>2017</v>
+        <v>1958</v>
       </c>
       <c r="F420" t="s">
-        <v>2018</v>
+        <v>1959</v>
       </c>
     </row>
     <row r="421" spans="1:12">
       <c r="A421" t="s">
-        <v>2019</v>
+        <v>1960</v>
       </c>
       <c r="B421" t="s">
-        <v>2020</v>
+        <v>1961</v>
       </c>
       <c r="D421" t="s">
-        <v>2203</v>
+        <v>2258</v>
       </c>
       <c r="E421" t="s">
-        <v>2021</v>
+        <v>1962</v>
       </c>
       <c r="F421" t="s">
-        <v>2022</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="422" spans="1:12">
       <c r="A422" t="s">
-        <v>2023</v>
+        <v>1964</v>
       </c>
       <c r="B422" t="s">
-        <v>2024</v>
+        <v>1965</v>
       </c>
       <c r="D422" t="s">
-        <v>2204</v>
+        <v>2259</v>
       </c>
       <c r="E422" t="s">
-        <v>2025</v>
+        <v>1966</v>
       </c>
       <c r="F422" t="s">
-        <v>2026</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="423" spans="1:12">
       <c r="A423" t="s">
-        <v>1919</v>
+        <v>1897</v>
       </c>
       <c r="B423" t="s">
-        <v>2027</v>
+        <v>1968</v>
       </c>
       <c r="D423" t="s">
-        <v>1920</v>
+        <v>1898</v>
       </c>
       <c r="E423" t="s">
-        <v>1920</v>
+        <v>1898</v>
       </c>
       <c r="F423" t="s">
-        <v>1921</v>
+        <v>1899</v>
       </c>
       <c r="J423" t="s">
-        <v>2223</v>
+        <v>2141</v>
       </c>
       <c r="K423" t="s">
-        <v>1922</v>
+        <v>1900</v>
       </c>
       <c r="L423" t="s">
-        <v>2028</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="424" spans="1:12">
       <c r="A424" t="s">
-        <v>1924</v>
+        <v>1902</v>
       </c>
       <c r="B424" t="s">
-        <v>2027</v>
+        <v>1968</v>
       </c>
       <c r="D424" t="s">
-        <v>1925</v>
+        <v>1903</v>
       </c>
       <c r="E424" t="s">
-        <v>1925</v>
+        <v>1903</v>
       </c>
       <c r="F424" t="s">
-        <v>1926</v>
+        <v>1904</v>
       </c>
       <c r="J424" t="s">
-        <v>2224</v>
+        <v>2142</v>
       </c>
       <c r="K424" t="s">
-        <v>1927</v>
+        <v>1905</v>
       </c>
       <c r="L424" t="s">
-        <v>2029</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="425" spans="1:12">
       <c r="A425" t="s">
-        <v>2030</v>
+        <v>1971</v>
       </c>
       <c r="B425" t="s">
-        <v>2031</v>
+        <v>1972</v>
       </c>
       <c r="D425" t="s">
-        <v>2205</v>
+        <v>2260</v>
       </c>
       <c r="E425" t="s">
-        <v>2033</v>
+        <v>1974</v>
       </c>
       <c r="F425" t="s">
-        <v>2032</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="426" spans="1:12">
       <c r="A426" t="s">
-        <v>2034</v>
+        <v>1975</v>
       </c>
       <c r="B426" t="s">
-        <v>2031</v>
+        <v>1972</v>
       </c>
       <c r="D426" t="s">
-        <v>2206</v>
+        <v>2261</v>
       </c>
       <c r="E426" t="s">
-        <v>2035</v>
+        <v>1976</v>
       </c>
       <c r="F426" t="s">
-        <v>2036</v>
+        <v>1977</v>
       </c>
     </row>
     <row r="427" spans="1:12">
       <c r="A427" t="s">
-        <v>2037</v>
+        <v>1978</v>
       </c>
       <c r="B427" t="s">
-        <v>2031</v>
+        <v>1972</v>
       </c>
       <c r="D427" t="s">
-        <v>2207</v>
+        <v>2262</v>
       </c>
       <c r="E427" t="s">
-        <v>2038</v>
+        <v>1979</v>
       </c>
       <c r="F427" t="s">
-        <v>2039</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="428" spans="1:12">
       <c r="A428" t="s">
-        <v>2049</v>
+        <v>1990</v>
       </c>
       <c r="B428" t="s">
-        <v>2041</v>
+        <v>1982</v>
       </c>
       <c r="D428" t="s">
-        <v>2050</v>
+        <v>1991</v>
       </c>
       <c r="E428" t="s">
-        <v>2050</v>
+        <v>1991</v>
       </c>
       <c r="F428" t="s">
-        <v>2051</v>
+        <v>1992</v>
       </c>
       <c r="J428" t="s">
-        <v>2226</v>
+        <v>2144</v>
       </c>
       <c r="K428" t="s">
-        <v>2052</v>
+        <v>1993</v>
       </c>
       <c r="L428" t="s">
-        <v>2053</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="429" spans="1:12">
       <c r="A429" t="s">
-        <v>2040</v>
+        <v>1981</v>
       </c>
       <c r="B429" t="s">
-        <v>2041</v>
+        <v>1982</v>
       </c>
       <c r="D429" t="s">
-        <v>2042</v>
+        <v>1983</v>
       </c>
       <c r="E429" t="s">
-        <v>2042</v>
+        <v>1983</v>
       </c>
       <c r="F429" t="s">
-        <v>2043</v>
+        <v>1984</v>
       </c>
       <c r="J429" t="s">
-        <v>2225</v>
+        <v>2143</v>
       </c>
       <c r="K429" t="s">
-        <v>2044</v>
+        <v>1985</v>
       </c>
       <c r="L429" t="s">
-        <v>2045</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="430" spans="1:12">
       <c r="A430" t="s">
-        <v>2046</v>
+        <v>1987</v>
       </c>
       <c r="B430" t="s">
-        <v>2041</v>
+        <v>1982</v>
       </c>
       <c r="D430" t="s">
-        <v>2047</v>
+        <v>1988</v>
       </c>
       <c r="E430" t="s">
-        <v>2047</v>
+        <v>1988</v>
       </c>
       <c r="F430" t="s">
-        <v>2047</v>
+        <v>1988</v>
       </c>
       <c r="J430" t="s">
-        <v>2048</v>
+        <v>1989</v>
       </c>
       <c r="K430" t="s">
-        <v>2048</v>
+        <v>1989</v>
       </c>
       <c r="L430" t="s">
-        <v>2048</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="431" spans="1:12">
       <c r="A431" t="s">
-        <v>2060</v>
+        <v>2001</v>
       </c>
       <c r="B431" t="s">
-        <v>2055</v>
+        <v>1996</v>
       </c>
       <c r="D431" t="s">
-        <v>2061</v>
+        <v>2002</v>
       </c>
       <c r="E431" t="s">
-        <v>2061</v>
+        <v>2002</v>
       </c>
       <c r="F431" t="s">
-        <v>2062</v>
+        <v>2003</v>
       </c>
       <c r="J431" t="s">
-        <v>2228</v>
+        <v>2146</v>
       </c>
       <c r="K431" t="s">
-        <v>2063</v>
+        <v>2004</v>
       </c>
       <c r="L431" t="s">
-        <v>2064</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="432" spans="1:12">
       <c r="A432" t="s">
-        <v>2054</v>
+        <v>1995</v>
       </c>
       <c r="B432" t="s">
-        <v>2055</v>
+        <v>1996</v>
       </c>
       <c r="D432" t="s">
-        <v>2056</v>
+        <v>1997</v>
       </c>
       <c r="E432" t="s">
-        <v>2056</v>
+        <v>1997</v>
       </c>
       <c r="F432" t="s">
-        <v>2057</v>
+        <v>1998</v>
       </c>
       <c r="J432" t="s">
-        <v>2227</v>
+        <v>2145</v>
       </c>
       <c r="K432" t="s">
-        <v>2058</v>
+        <v>1999</v>
       </c>
       <c r="L432" t="s">
-        <v>2059</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="433" spans="1:12">
       <c r="A433" t="s">
-        <v>2065</v>
+        <v>2006</v>
       </c>
       <c r="B433" t="s">
-        <v>2066</v>
+        <v>2007</v>
       </c>
       <c r="D433" t="s">
-        <v>2208</v>
+        <v>2241</v>
       </c>
       <c r="E433" t="s">
-        <v>2067</v>
+        <v>2008</v>
       </c>
       <c r="F433" t="s">
-        <v>2068</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="434" spans="1:12">
       <c r="A434" t="s">
-        <v>1866</v>
+        <v>1844</v>
       </c>
       <c r="B434" t="s">
-        <v>2069</v>
+        <v>2010</v>
       </c>
       <c r="D434" t="s">
-        <v>2070</v>
+        <v>2011</v>
       </c>
       <c r="E434" t="s">
-        <v>2070</v>
+        <v>2011</v>
       </c>
       <c r="F434" t="s">
-        <v>2071</v>
+        <v>2012</v>
       </c>
       <c r="J434" t="s">
-        <v>2229</v>
+        <v>2147</v>
       </c>
       <c r="K434" t="s">
-        <v>2072</v>
+        <v>2013</v>
       </c>
       <c r="L434" t="s">
-        <v>2073</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="435" spans="1:12">
       <c r="A435" t="s">
-        <v>2078</v>
+        <v>2019</v>
       </c>
       <c r="B435" t="s">
-        <v>2075</v>
+        <v>2016</v>
       </c>
       <c r="D435" t="s">
-        <v>2079</v>
+        <v>2020</v>
       </c>
       <c r="E435" t="s">
-        <v>2079</v>
+        <v>2020</v>
       </c>
       <c r="F435" t="s">
-        <v>2080</v>
+        <v>2021</v>
       </c>
       <c r="J435" t="s">
-        <v>2230</v>
+        <v>2148</v>
       </c>
       <c r="K435" t="s">
-        <v>2082</v>
+        <v>2023</v>
       </c>
       <c r="L435" t="s">
-        <v>2081</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="436" spans="1:12">
       <c r="A436" t="s">
-        <v>2083</v>
+        <v>2024</v>
       </c>
       <c r="B436" t="s">
-        <v>2075</v>
+        <v>2016</v>
       </c>
       <c r="D436" t="s">
-        <v>2084</v>
+        <v>2025</v>
       </c>
       <c r="E436" t="s">
-        <v>2084</v>
+        <v>2025</v>
       </c>
       <c r="F436" t="s">
-        <v>2085</v>
+        <v>2026</v>
       </c>
       <c r="J436" t="s">
-        <v>2230</v>
+        <v>2148</v>
       </c>
       <c r="K436" t="s">
-        <v>2082</v>
+        <v>2023</v>
       </c>
       <c r="L436" t="s">
-        <v>2081</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="437" spans="1:12">
       <c r="A437" t="s">
-        <v>2074</v>
+        <v>2015</v>
       </c>
       <c r="B437" t="s">
-        <v>2075</v>
+        <v>2016</v>
       </c>
       <c r="D437" t="s">
-        <v>2209</v>
+        <v>2242</v>
       </c>
       <c r="E437" t="s">
-        <v>2076</v>
+        <v>2017</v>
       </c>
       <c r="F437" t="s">
-        <v>2077</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="438" spans="1:12">
       <c r="A438" t="s">
-        <v>2086</v>
+        <v>2027</v>
       </c>
       <c r="B438" t="s">
-        <v>2087</v>
+        <v>2028</v>
       </c>
       <c r="D438" t="s">
-        <v>2088</v>
+        <v>2029</v>
       </c>
       <c r="E438" t="s">
-        <v>2088</v>
+        <v>2029</v>
       </c>
       <c r="F438" t="s">
-        <v>2089</v>
+        <v>2030</v>
       </c>
       <c r="J438" t="s">
-        <v>2231</v>
+        <v>2149</v>
       </c>
       <c r="K438" t="s">
-        <v>2090</v>
+        <v>2031</v>
       </c>
       <c r="L438" t="s">
-        <v>2091</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="439" spans="1:12">
       <c r="A439" t="s">
-        <v>2092</v>
+        <v>2033</v>
       </c>
       <c r="B439" t="s">
-        <v>2093</v>
+        <v>2034</v>
       </c>
       <c r="D439" t="s">
-        <v>2210</v>
+        <v>2243</v>
       </c>
       <c r="E439" t="s">
-        <v>2094</v>
+        <v>2035</v>
       </c>
       <c r="F439" t="s">
-        <v>2095</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="440" spans="1:12">
       <c r="A440" t="s">
-        <v>2096</v>
+        <v>2037</v>
       </c>
       <c r="B440" t="s">
-        <v>2097</v>
+        <v>2038</v>
       </c>
       <c r="D440" t="s">
-        <v>2211</v>
+        <v>2244</v>
       </c>
       <c r="E440" t="s">
-        <v>2098</v>
+        <v>2039</v>
       </c>
       <c r="F440" t="s">
-        <v>2099</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="441" spans="1:12">
       <c r="A441" t="s">
-        <v>2100</v>
+        <v>2041</v>
       </c>
       <c r="B441" t="s">
-        <v>2101</v>
+        <v>2042</v>
       </c>
       <c r="D441" t="s">
-        <v>2102</v>
+        <v>2245</v>
       </c>
       <c r="E441" t="s">
-        <v>2102</v>
+        <v>2043</v>
       </c>
       <c r="F441" t="s">
-        <v>2103</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="442" spans="1:12">
       <c r="A442" t="s">
-        <v>2104</v>
+        <v>2045</v>
       </c>
       <c r="B442" t="s">
-        <v>2105</v>
+        <v>2046</v>
       </c>
       <c r="D442" t="s">
-        <v>2106</v>
+        <v>2047</v>
       </c>
       <c r="E442" t="s">
-        <v>2106</v>
+        <v>2047</v>
       </c>
       <c r="F442" t="s">
-        <v>2107</v>
+        <v>2048</v>
       </c>
       <c r="J442" t="s">
-        <v>2232</v>
+        <v>2150</v>
       </c>
       <c r="K442" t="s">
-        <v>2108</v>
+        <v>2049</v>
       </c>
       <c r="L442" t="s">
-        <v>2109</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="443" spans="1:12">
       <c r="A443" t="s">
-        <v>2110</v>
+        <v>2051</v>
       </c>
       <c r="B443" t="s">
-        <v>2105</v>
+        <v>2046</v>
       </c>
       <c r="D443" t="s">
-        <v>2111</v>
+        <v>2052</v>
       </c>
       <c r="E443" t="s">
-        <v>2111</v>
+        <v>2052</v>
       </c>
       <c r="F443" t="s">
-        <v>2112</v>
+        <v>2053</v>
       </c>
       <c r="J443" t="s">
-        <v>2233</v>
+        <v>2151</v>
       </c>
       <c r="K443" t="s">
-        <v>2113</v>
+        <v>2054</v>
       </c>
       <c r="L443" t="s">
-        <v>2114</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="444" spans="1:12">
@@ -16745,7 +16715,7 @@
         <v>782</v>
       </c>
       <c r="J444" t="s">
-        <v>1686</v>
+        <v>1683</v>
       </c>
       <c r="K444" t="s">
         <v>783</v>
@@ -16771,7 +16741,7 @@
         <v>782</v>
       </c>
       <c r="J445" t="s">
-        <v>2234</v>
+        <v>2152</v>
       </c>
       <c r="K445" t="s">
         <v>783</v>
@@ -16782,147 +16752,147 @@
     </row>
     <row r="446" spans="1:12">
       <c r="A446" t="s">
-        <v>2115</v>
+        <v>2056</v>
       </c>
       <c r="B446" t="s">
-        <v>2116</v>
+        <v>2057</v>
       </c>
       <c r="D446" t="s">
-        <v>2212</v>
+        <v>2234</v>
       </c>
       <c r="E446" t="s">
-        <v>2117</v>
+        <v>2058</v>
       </c>
       <c r="F446" t="s">
-        <v>2118</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="447" spans="1:12">
       <c r="A447" t="s">
-        <v>2119</v>
+        <v>2060</v>
       </c>
       <c r="B447" t="s">
-        <v>2120</v>
+        <v>2061</v>
       </c>
       <c r="D447" t="s">
-        <v>2213</v>
+        <v>2235</v>
       </c>
       <c r="E447" t="s">
-        <v>2119</v>
+        <v>2060</v>
       </c>
       <c r="F447" t="s">
-        <v>2121</v>
+        <v>2062</v>
       </c>
     </row>
     <row r="448" spans="1:12">
       <c r="A448" t="s">
-        <v>2122</v>
+        <v>2063</v>
       </c>
       <c r="B448" t="s">
-        <v>2120</v>
+        <v>2061</v>
       </c>
       <c r="D448" t="s">
-        <v>2123</v>
+        <v>2064</v>
       </c>
       <c r="E448" t="s">
-        <v>2123</v>
+        <v>2064</v>
       </c>
       <c r="F448" t="s">
-        <v>2123</v>
+        <v>2064</v>
       </c>
     </row>
     <row r="449" spans="1:12">
       <c r="A449" t="s">
-        <v>2124</v>
+        <v>2065</v>
       </c>
       <c r="B449" t="s">
-        <v>2125</v>
+        <v>2066</v>
       </c>
       <c r="D449" t="s">
-        <v>2214</v>
+        <v>2236</v>
       </c>
       <c r="E449" t="s">
-        <v>2126</v>
+        <v>2067</v>
       </c>
       <c r="F449" t="s">
-        <v>2127</v>
+        <v>2068</v>
       </c>
     </row>
     <row r="450" spans="1:12">
       <c r="A450" t="s">
-        <v>2128</v>
+        <v>2069</v>
       </c>
       <c r="B450" t="s">
-        <v>2129</v>
+        <v>2070</v>
       </c>
       <c r="D450" t="s">
-        <v>2215</v>
+        <v>2237</v>
       </c>
       <c r="E450" t="s">
-        <v>2130</v>
+        <v>2071</v>
       </c>
       <c r="F450" t="s">
-        <v>2131</v>
+        <v>2072</v>
       </c>
     </row>
     <row r="451" spans="1:12">
       <c r="A451" t="s">
-        <v>2132</v>
+        <v>2073</v>
       </c>
       <c r="B451" t="s">
-        <v>2129</v>
+        <v>2070</v>
       </c>
       <c r="D451" t="s">
-        <v>2133</v>
+        <v>2074</v>
       </c>
       <c r="E451" t="s">
-        <v>2133</v>
+        <v>2074</v>
       </c>
       <c r="F451" t="s">
-        <v>2134</v>
+        <v>2075</v>
       </c>
     </row>
     <row r="452" spans="1:12">
       <c r="A452" t="s">
-        <v>2135</v>
+        <v>2076</v>
       </c>
       <c r="B452" t="s">
-        <v>2136</v>
+        <v>2077</v>
       </c>
       <c r="D452" t="s">
-        <v>2135</v>
+        <v>2238</v>
       </c>
       <c r="E452" t="s">
-        <v>2135</v>
+        <v>2076</v>
       </c>
       <c r="F452" t="s">
-        <v>2137</v>
+        <v>2078</v>
       </c>
       <c r="J452" t="s">
-        <v>2235</v>
+        <v>2153</v>
       </c>
       <c r="K452" t="s">
-        <v>2138</v>
+        <v>2079</v>
       </c>
       <c r="L452" t="s">
-        <v>2139</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="453" spans="1:12">
       <c r="A453" t="s">
-        <v>2147</v>
+        <v>2088</v>
       </c>
       <c r="B453" t="s">
-        <v>2141</v>
+        <v>2082</v>
       </c>
       <c r="D453" t="s">
-        <v>2218</v>
+        <v>2140</v>
       </c>
       <c r="E453" t="s">
-        <v>2148</v>
+        <v>2089</v>
       </c>
       <c r="F453" t="s">
-        <v>2149</v>
+        <v>2090</v>
       </c>
       <c r="J453" t="s">
         <v>1444</v>
@@ -16936,44 +16906,44 @@
     </row>
     <row r="454" spans="1:12">
       <c r="A454" t="s">
-        <v>2140</v>
+        <v>2081</v>
       </c>
       <c r="B454" t="s">
-        <v>2141</v>
+        <v>2082</v>
       </c>
       <c r="D454" t="s">
-        <v>2216</v>
+        <v>2239</v>
       </c>
       <c r="E454" t="s">
-        <v>2142</v>
+        <v>2083</v>
       </c>
       <c r="F454" t="s">
-        <v>2143</v>
+        <v>2084</v>
       </c>
     </row>
     <row r="455" spans="1:12">
       <c r="A455" t="s">
-        <v>2144</v>
+        <v>2085</v>
       </c>
       <c r="B455" t="s">
-        <v>2141</v>
+        <v>2082</v>
       </c>
       <c r="D455" t="s">
-        <v>2217</v>
+        <v>2240</v>
       </c>
       <c r="E455" t="s">
-        <v>2145</v>
+        <v>2086</v>
       </c>
       <c r="F455" t="s">
-        <v>2146</v>
+        <v>2087</v>
       </c>
     </row>
     <row r="456" spans="1:12">
       <c r="A456" t="s">
-        <v>2150</v>
+        <v>2091</v>
       </c>
       <c r="B456" t="s">
-        <v>2151</v>
+        <v>2092</v>
       </c>
       <c r="D456" t="s">
         <v>1252</v>
@@ -16985,13 +16955,13 @@
         <v>1253</v>
       </c>
       <c r="J456" t="s">
-        <v>2236</v>
+        <v>2154</v>
       </c>
       <c r="K456" t="s">
-        <v>2152</v>
+        <v>2093</v>
       </c>
       <c r="L456" t="s">
-        <v>2153</v>
+        <v>2094</v>
       </c>
     </row>
     <row r="457" spans="1:12">
@@ -16999,7 +16969,7 @@
         <v>887</v>
       </c>
       <c r="B457" t="s">
-        <v>2154</v>
+        <v>2095</v>
       </c>
       <c r="D457" t="s">
         <v>14</v>
@@ -17011,13 +16981,13 @@
         <v>14</v>
       </c>
       <c r="J457" t="s">
-        <v>2239</v>
+        <v>2157</v>
       </c>
       <c r="K457" t="s">
-        <v>2159</v>
+        <v>2100</v>
       </c>
       <c r="L457" t="s">
-        <v>2160</v>
+        <v>2101</v>
       </c>
     </row>
     <row r="458" spans="1:12">
@@ -17025,7 +16995,7 @@
         <v>838</v>
       </c>
       <c r="B458" t="s">
-        <v>2154</v>
+        <v>2095</v>
       </c>
       <c r="D458" t="s">
         <v>14</v>
@@ -17037,13 +17007,13 @@
         <v>14</v>
       </c>
       <c r="J458" t="s">
-        <v>2237</v>
+        <v>2155</v>
       </c>
       <c r="K458" t="s">
-        <v>2155</v>
+        <v>2096</v>
       </c>
       <c r="L458" t="s">
-        <v>2156</v>
+        <v>2097</v>
       </c>
     </row>
     <row r="459" spans="1:12">
@@ -17051,7 +17021,7 @@
         <v>886</v>
       </c>
       <c r="B459" t="s">
-        <v>2154</v>
+        <v>2095</v>
       </c>
       <c r="D459" t="s">
         <v>14</v>
@@ -17063,21 +17033,21 @@
         <v>14</v>
       </c>
       <c r="J459" t="s">
-        <v>2238</v>
+        <v>2156</v>
       </c>
       <c r="K459" t="s">
-        <v>2157</v>
+        <v>2098</v>
       </c>
       <c r="L459" t="s">
-        <v>2158</v>
+        <v>2099</v>
       </c>
     </row>
     <row r="460" spans="1:12">
       <c r="A460" t="s">
-        <v>2161</v>
+        <v>2102</v>
       </c>
       <c r="B460" t="s">
-        <v>2162</v>
+        <v>2103</v>
       </c>
       <c r="D460" t="s">
         <v>1252</v>
@@ -17089,30 +17059,30 @@
         <v>1253</v>
       </c>
       <c r="J460" t="s">
-        <v>2240</v>
+        <v>2158</v>
       </c>
       <c r="K460" t="s">
-        <v>2163</v>
+        <v>2104</v>
       </c>
       <c r="L460" t="s">
-        <v>2164</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="461" spans="1:12">
       <c r="A461" t="s">
-        <v>2165</v>
+        <v>2106</v>
       </c>
       <c r="B461" t="s">
-        <v>2162</v>
+        <v>2103</v>
       </c>
       <c r="D461" t="s">
-        <v>2219</v>
+        <v>2231</v>
       </c>
       <c r="E461" t="s">
-        <v>2167</v>
+        <v>2108</v>
       </c>
       <c r="F461" t="s">
-        <v>2166</v>
+        <v>2107</v>
       </c>
     </row>
     <row r="462" spans="1:12">
@@ -17120,7 +17090,7 @@
         <v>207</v>
       </c>
       <c r="B462" t="s">
-        <v>2168</v>
+        <v>2109</v>
       </c>
       <c r="D462" t="s">
         <v>14</v>
@@ -17132,7 +17102,7 @@
         <v>14</v>
       </c>
       <c r="J462" t="s">
-        <v>2241</v>
+        <v>2159</v>
       </c>
       <c r="K462" t="s">
         <v>208</v>
@@ -17143,13 +17113,13 @@
     </row>
     <row r="463" spans="1:12">
       <c r="A463" t="s">
-        <v>2169</v>
+        <v>2110</v>
       </c>
       <c r="B463" t="s">
-        <v>2170</v>
+        <v>2111</v>
       </c>
       <c r="D463" t="s">
-        <v>2220</v>
+        <v>1364</v>
       </c>
       <c r="E463" t="s">
         <v>124</v>
@@ -17160,241 +17130,241 @@
     </row>
     <row r="464" spans="1:12">
       <c r="A464" t="s">
-        <v>2171</v>
+        <v>2112</v>
       </c>
       <c r="B464" t="s">
-        <v>2172</v>
+        <v>2113</v>
       </c>
       <c r="D464" t="s">
-        <v>2173</v>
+        <v>2114</v>
       </c>
       <c r="E464" t="s">
-        <v>2173</v>
+        <v>2114</v>
       </c>
       <c r="F464" t="s">
-        <v>2173</v>
+        <v>2114</v>
       </c>
     </row>
     <row r="465" spans="1:12">
       <c r="A465" t="s">
-        <v>2174</v>
+        <v>2115</v>
       </c>
       <c r="B465" t="s">
-        <v>2175</v>
+        <v>2116</v>
       </c>
       <c r="D465" t="s">
-        <v>2221</v>
+        <v>2232</v>
       </c>
       <c r="E465" t="s">
-        <v>2176</v>
+        <v>2117</v>
       </c>
       <c r="F465" t="s">
-        <v>2177</v>
+        <v>2118</v>
       </c>
     </row>
     <row r="466" spans="1:12">
       <c r="A466" t="s">
-        <v>2178</v>
+        <v>2119</v>
       </c>
       <c r="B466" t="s">
-        <v>2179</v>
+        <v>2120</v>
       </c>
       <c r="D466" t="s">
-        <v>2222</v>
+        <v>2233</v>
       </c>
       <c r="E466" t="s">
-        <v>2178</v>
+        <v>2119</v>
       </c>
       <c r="F466" t="s">
-        <v>2180</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="467" spans="1:12">
       <c r="A467" t="s">
-        <v>2181</v>
+        <v>2122</v>
       </c>
       <c r="B467" t="s">
-        <v>2182</v>
+        <v>2123</v>
       </c>
       <c r="D467" t="s">
-        <v>2183</v>
+        <v>2124</v>
       </c>
       <c r="E467" t="s">
-        <v>2183</v>
+        <v>2124</v>
       </c>
       <c r="F467" t="s">
-        <v>2184</v>
+        <v>2125</v>
       </c>
       <c r="J467" t="s">
-        <v>1606</v>
+        <v>1603</v>
       </c>
       <c r="K467" t="s">
-        <v>2185</v>
+        <v>2126</v>
       </c>
       <c r="L467" t="s">
-        <v>2186</v>
+        <v>2127</v>
       </c>
     </row>
     <row r="468" spans="1:12">
       <c r="A468" t="s">
-        <v>2187</v>
+        <v>2128</v>
       </c>
       <c r="B468" t="s">
-        <v>2188</v>
+        <v>2129</v>
       </c>
       <c r="D468" t="s">
-        <v>2189</v>
+        <v>2130</v>
       </c>
       <c r="E468" t="s">
-        <v>2189</v>
+        <v>2130</v>
       </c>
       <c r="F468" t="s">
-        <v>2190</v>
+        <v>2131</v>
       </c>
       <c r="J468" t="s">
-        <v>2242</v>
+        <v>2160</v>
       </c>
       <c r="K468" t="s">
-        <v>2191</v>
+        <v>2132</v>
       </c>
       <c r="L468" t="s">
-        <v>2192</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="469" spans="1:12">
       <c r="A469" t="s">
-        <v>2193</v>
+        <v>2134</v>
       </c>
       <c r="B469" t="s">
-        <v>2194</v>
+        <v>2135</v>
       </c>
       <c r="D469" t="s">
-        <v>2195</v>
+        <v>2136</v>
       </c>
       <c r="E469" t="s">
-        <v>2195</v>
+        <v>2136</v>
       </c>
       <c r="F469" t="s">
-        <v>2196</v>
+        <v>2137</v>
       </c>
       <c r="J469" t="s">
-        <v>2243</v>
+        <v>2161</v>
       </c>
       <c r="K469" t="s">
-        <v>2197</v>
+        <v>2138</v>
       </c>
       <c r="L469" t="s">
-        <v>2198</v>
+        <v>2139</v>
       </c>
     </row>
     <row r="470" spans="1:12">
       <c r="A470" s="2" t="s">
-        <v>2244</v>
+        <v>2162</v>
       </c>
       <c r="B470" s="2" t="s">
-        <v>2245</v>
+        <v>2163</v>
       </c>
       <c r="D470" s="4" t="s">
-        <v>2276</v>
+        <v>2227</v>
       </c>
       <c r="E470" s="2" t="s">
-        <v>2244</v>
+        <v>2162</v>
       </c>
       <c r="F470" t="s">
-        <v>2246</v>
+        <v>2164</v>
       </c>
     </row>
     <row r="471" spans="1:12">
       <c r="A471" s="2" t="s">
-        <v>2247</v>
+        <v>2165</v>
       </c>
       <c r="B471" s="2" t="s">
-        <v>2245</v>
+        <v>2163</v>
       </c>
       <c r="D471" s="4" t="s">
-        <v>2277</v>
+        <v>2228</v>
       </c>
       <c r="E471" s="2" t="s">
-        <v>2248</v>
+        <v>2166</v>
       </c>
       <c r="F471" t="s">
-        <v>2249</v>
+        <v>2167</v>
       </c>
     </row>
     <row r="472" spans="1:12">
       <c r="A472" s="2" t="s">
-        <v>2250</v>
+        <v>2168</v>
       </c>
       <c r="B472" s="2" t="s">
-        <v>2245</v>
+        <v>2163</v>
       </c>
       <c r="D472" s="4" t="s">
-        <v>2251</v>
+        <v>2229</v>
       </c>
       <c r="E472" s="2" t="s">
-        <v>2251</v>
+        <v>2169</v>
       </c>
       <c r="F472" t="s">
-        <v>2252</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="473" spans="1:12">
       <c r="A473" s="2" t="s">
-        <v>2253</v>
+        <v>2171</v>
       </c>
       <c r="B473" s="2" t="s">
-        <v>2245</v>
+        <v>2163</v>
       </c>
       <c r="D473" s="4" t="s">
-        <v>2278</v>
+        <v>1353</v>
       </c>
       <c r="E473" s="2" t="s">
-        <v>2254</v>
+        <v>2172</v>
       </c>
       <c r="F473" t="s">
-        <v>2255</v>
+        <v>2173</v>
       </c>
     </row>
     <row r="474" spans="1:12">
       <c r="A474" s="2" t="s">
-        <v>2256</v>
+        <v>2174</v>
       </c>
       <c r="B474" s="2" t="s">
-        <v>2257</v>
+        <v>2175</v>
       </c>
       <c r="D474" s="4" t="s">
-        <v>2279</v>
+        <v>2226</v>
       </c>
       <c r="E474" s="2" t="s">
-        <v>2258</v>
+        <v>2176</v>
       </c>
       <c r="F474" t="s">
-        <v>2259</v>
+        <v>2177</v>
       </c>
     </row>
     <row r="475" spans="1:12">
       <c r="A475" s="2" t="s">
-        <v>2260</v>
+        <v>2178</v>
       </c>
       <c r="B475" s="2" t="s">
-        <v>2257</v>
+        <v>2175</v>
       </c>
       <c r="D475" s="4" t="s">
-        <v>2280</v>
+        <v>2230</v>
       </c>
       <c r="E475" s="2" t="s">
-        <v>2261</v>
+        <v>2179</v>
       </c>
       <c r="F475" t="s">
-        <v>2262</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="476" spans="1:12">
       <c r="A476" s="2" t="s">
-        <v>2263</v>
+        <v>2181</v>
       </c>
       <c r="B476" s="2" t="s">
-        <v>2264</v>
+        <v>2182</v>
       </c>
       <c r="D476" s="4" t="s">
         <v>14</v>
@@ -17406,7 +17376,7 @@
         <v>14</v>
       </c>
       <c r="J476" s="4" t="s">
-        <v>2281</v>
+        <v>2194</v>
       </c>
       <c r="K476" s="2" t="s">
         <v>86</v>
@@ -17417,10 +17387,10 @@
     </row>
     <row r="477" spans="1:12">
       <c r="A477" s="2" t="s">
-        <v>2265</v>
+        <v>2183</v>
       </c>
       <c r="B477" s="2" t="s">
-        <v>2264</v>
+        <v>2182</v>
       </c>
       <c r="D477" s="4" t="s">
         <v>14</v>
@@ -17432,7 +17402,7 @@
         <v>14</v>
       </c>
       <c r="J477" s="4" t="s">
-        <v>2281</v>
+        <v>2194</v>
       </c>
       <c r="K477" s="2" t="s">
         <v>86</v>
@@ -17443,10 +17413,10 @@
     </row>
     <row r="478" spans="1:12">
       <c r="A478" s="2" t="s">
-        <v>2273</v>
+        <v>2191</v>
       </c>
       <c r="B478" s="2" t="s">
-        <v>2267</v>
+        <v>2185</v>
       </c>
       <c r="D478" s="4" t="s">
         <v>14</v>
@@ -17458,66 +17428,66 @@
         <v>14</v>
       </c>
       <c r="J478" s="4" t="s">
-        <v>2282</v>
+        <v>2195</v>
       </c>
       <c r="K478" s="2" t="s">
-        <v>2274</v>
+        <v>2192</v>
       </c>
       <c r="L478" t="s">
-        <v>2275</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="479" spans="1:12">
       <c r="A479" s="2" t="s">
-        <v>2266</v>
+        <v>2184</v>
       </c>
       <c r="B479" s="2" t="s">
-        <v>2267</v>
+        <v>2185</v>
       </c>
       <c r="D479" s="4" t="s">
-        <v>2269</v>
+        <v>2187</v>
       </c>
       <c r="E479" s="2" t="s">
-        <v>2269</v>
+        <v>2187</v>
       </c>
       <c r="F479" s="2" t="s">
-        <v>2269</v>
+        <v>2187</v>
       </c>
       <c r="J479" s="3"/>
     </row>
     <row r="480" spans="1:12">
       <c r="A480" s="2" t="s">
-        <v>2270</v>
+        <v>2188</v>
       </c>
       <c r="B480" s="2" t="s">
-        <v>2267</v>
+        <v>2185</v>
       </c>
       <c r="D480" s="4" t="s">
-        <v>2271</v>
+        <v>2189</v>
       </c>
       <c r="E480" s="2" t="s">
-        <v>2271</v>
+        <v>2189</v>
       </c>
       <c r="F480" s="2" t="s">
-        <v>2271</v>
+        <v>2189</v>
       </c>
       <c r="J480" s="3"/>
     </row>
     <row r="481" spans="1:12">
       <c r="A481" s="2" t="s">
-        <v>2272</v>
+        <v>2190</v>
       </c>
       <c r="B481" s="2" t="s">
-        <v>2267</v>
+        <v>2185</v>
       </c>
       <c r="D481" s="4" t="s">
-        <v>2268</v>
+        <v>2186</v>
       </c>
       <c r="E481" s="2" t="s">
-        <v>2268</v>
+        <v>2186</v>
       </c>
       <c r="F481" s="2" t="s">
-        <v>2268</v>
+        <v>2186</v>
       </c>
       <c r="J481" s="3"/>
     </row>
@@ -17529,7 +17499,7 @@
         <v>1325</v>
       </c>
       <c r="D482" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="E482" t="s">
         <v>989</v>
@@ -17546,7 +17516,7 @@
         <v>1325</v>
       </c>
       <c r="D483" t="s">
-        <v>1559</v>
+        <v>2225</v>
       </c>
       <c r="E483" t="s">
         <v>1041</v>
@@ -17572,7 +17542,7 @@
         <v>14</v>
       </c>
       <c r="J484" t="s">
-        <v>1714</v>
+        <v>1711</v>
       </c>
       <c r="K484" t="s">
         <v>1016</v>
@@ -17598,7 +17568,7 @@
         <v>14</v>
       </c>
       <c r="J485" t="s">
-        <v>1654</v>
+        <v>1651</v>
       </c>
       <c r="K485" t="s">
         <v>391</v>
@@ -17624,7 +17594,7 @@
         <v>128</v>
       </c>
       <c r="J486" t="s">
-        <v>1595</v>
+        <v>1592</v>
       </c>
       <c r="K486" t="s">
         <v>129</v>
@@ -17650,7 +17620,7 @@
         <v>14</v>
       </c>
       <c r="J487" t="s">
-        <v>1637</v>
+        <v>1634</v>
       </c>
       <c r="K487" t="s">
         <v>172</v>
@@ -17667,7 +17637,7 @@
         <v>1278</v>
       </c>
       <c r="D488" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="E488" t="s">
         <v>812</v>
@@ -17778,7 +17748,7 @@
         <v>285</v>
       </c>
       <c r="J494" t="s">
-        <v>1645</v>
+        <v>1642</v>
       </c>
       <c r="K494" t="s">
         <v>286</v>
@@ -17795,7 +17765,7 @@
         <v>1303</v>
       </c>
       <c r="D495" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="E495" t="s">
         <v>457</v>
@@ -17812,7 +17782,7 @@
         <v>1303</v>
       </c>
       <c r="D496" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="E496" t="s">
         <v>657</v>
@@ -17829,7 +17799,7 @@
         <v>1303</v>
       </c>
       <c r="D497" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="E497" t="s">
         <v>660</v>
@@ -17846,7 +17816,7 @@
         <v>1303</v>
       </c>
       <c r="D498" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="E498" t="s">
         <v>663</v>
@@ -17863,7 +17833,7 @@
         <v>1303</v>
       </c>
       <c r="D499" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="E499" t="s">
         <v>666</v>
@@ -17897,7 +17867,7 @@
         <v>1297</v>
       </c>
       <c r="D501" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="E501" t="s">
         <v>451</v>
@@ -17914,7 +17884,7 @@
         <v>1297</v>
       </c>
       <c r="D502" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="E502" t="s">
         <v>571</v>
@@ -17931,7 +17901,7 @@
         <v>1297</v>
       </c>
       <c r="D503" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="E503" t="s">
         <v>574</v>
@@ -17999,7 +17969,7 @@
         <v>1283</v>
       </c>
       <c r="D507" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="E507" t="s">
         <v>692</v>
@@ -18016,7 +17986,7 @@
         <v>1283</v>
       </c>
       <c r="D508" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="E508" t="s">
         <v>695</v>
@@ -18042,7 +18012,7 @@
         <v>493</v>
       </c>
       <c r="J509" t="s">
-        <v>1668</v>
+        <v>1665</v>
       </c>
       <c r="K509" t="s">
         <v>494</v>
@@ -18076,7 +18046,7 @@
         <v>1284</v>
       </c>
       <c r="D511" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="E511" t="s">
         <v>547</v>
@@ -18093,7 +18063,7 @@
         <v>1307</v>
       </c>
       <c r="D512" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="E512" t="s">
         <v>497</v>
@@ -18145,7 +18115,7 @@
         <v>1107</v>
       </c>
       <c r="J514" t="s">
-        <v>1628</v>
+        <v>1625</v>
       </c>
       <c r="K514" t="s">
         <v>1108</v>
@@ -18162,7 +18132,7 @@
         <v>1310</v>
       </c>
       <c r="D515" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="E515" t="s">
         <v>592</v>
@@ -18179,7 +18149,7 @@
         <v>1310</v>
       </c>
       <c r="D516" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="E516" t="s">
         <v>793</v>
@@ -18196,7 +18166,7 @@
         <v>1310</v>
       </c>
       <c r="D517" t="s">
-        <v>1566</v>
+        <v>1563</v>
       </c>
       <c r="E517" t="s">
         <v>1129</v>
@@ -18213,7 +18183,7 @@
         <v>1330</v>
       </c>
       <c r="D518" t="s">
-        <v>1560</v>
+        <v>2224</v>
       </c>
       <c r="E518" t="s">
         <v>1044</v>
@@ -18247,7 +18217,7 @@
         <v>1296</v>
       </c>
       <c r="D520" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="E520" t="s">
         <v>514</v>
@@ -18264,7 +18234,7 @@
         <v>1296</v>
       </c>
       <c r="D521" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="E521" t="s">
         <v>889</v>
@@ -18281,7 +18251,7 @@
         <v>1296</v>
       </c>
       <c r="D522" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="E522" t="s">
         <v>892</v>
@@ -18324,7 +18294,7 @@
         <v>1326</v>
       </c>
       <c r="D524" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="E524" t="s">
         <v>995</v>
@@ -18341,7 +18311,7 @@
         <v>1326</v>
       </c>
       <c r="D525" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="E525" t="s">
         <v>1000</v>
@@ -18358,7 +18328,7 @@
         <v>1320</v>
       </c>
       <c r="D526" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="E526" t="s">
         <v>861</v>
@@ -18375,7 +18345,7 @@
         <v>1320</v>
       </c>
       <c r="D527" t="s">
-        <v>1567</v>
+        <v>1564</v>
       </c>
       <c r="E527" t="s">
         <v>1131</v>
@@ -18392,7 +18362,7 @@
         <v>1320</v>
       </c>
       <c r="D528" t="s">
-        <v>1568</v>
+        <v>1565</v>
       </c>
       <c r="E528" t="s">
         <v>1134</v>
@@ -18418,7 +18388,7 @@
         <v>488</v>
       </c>
       <c r="J529" t="s">
-        <v>1667</v>
+        <v>1664</v>
       </c>
       <c r="K529" t="s">
         <v>489</v>
@@ -18435,7 +18405,7 @@
         <v>1306</v>
       </c>
       <c r="D530" t="s">
-        <v>1560</v>
+        <v>2224</v>
       </c>
       <c r="E530" t="s">
         <v>1044</v>
@@ -18461,7 +18431,7 @@
         <v>14</v>
       </c>
       <c r="J531" t="s">
-        <v>1641</v>
+        <v>1638</v>
       </c>
       <c r="K531" t="s">
         <v>233</v>
@@ -18504,7 +18474,7 @@
         <v>1115</v>
       </c>
       <c r="J533" t="s">
-        <v>1726</v>
+        <v>1723</v>
       </c>
       <c r="K533" t="s">
         <v>1116</v>
@@ -18538,7 +18508,7 @@
         <v>1300</v>
       </c>
       <c r="D535" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="E535" t="s">
         <v>560</v>
@@ -18555,7 +18525,7 @@
         <v>1322</v>
       </c>
       <c r="D536" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="E536" t="s">
         <v>900</v>
@@ -18572,7 +18542,7 @@
         <v>1312</v>
       </c>
       <c r="D537" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="E537" t="s">
         <v>607</v>
@@ -18589,7 +18559,7 @@
         <v>1312</v>
       </c>
       <c r="D538" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="E538" t="s">
         <v>610</v>
@@ -18606,7 +18576,7 @@
         <v>1312</v>
       </c>
       <c r="D539" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="E539" t="s">
         <v>613</v>
@@ -18700,7 +18670,7 @@
         <v>596</v>
       </c>
       <c r="J544" t="s">
-        <v>1673</v>
+        <v>1670</v>
       </c>
       <c r="K544" t="s">
         <v>597</v>
@@ -18717,7 +18687,7 @@
         <v>1311</v>
       </c>
       <c r="D545" t="s">
-        <v>1571</v>
+        <v>1568</v>
       </c>
       <c r="E545" t="s">
         <v>1156</v>
@@ -18751,7 +18721,7 @@
         <v>1291</v>
       </c>
       <c r="D547" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="E547" t="s">
         <v>520</v>
@@ -18785,7 +18755,7 @@
         <v>1331</v>
       </c>
       <c r="D549" t="s">
-        <v>1562</v>
+        <v>1559</v>
       </c>
       <c r="E549" t="s">
         <v>1055</v>
@@ -18794,7 +18764,7 @@
         <v>1056</v>
       </c>
       <c r="J549" t="s">
-        <v>1561</v>
+        <v>1558</v>
       </c>
       <c r="K549" t="s">
         <v>1053</v>
@@ -18811,7 +18781,7 @@
         <v>1331</v>
       </c>
       <c r="D550" t="s">
-        <v>1561</v>
+        <v>1558</v>
       </c>
       <c r="E550" t="s">
         <v>1053</v>
@@ -18828,7 +18798,7 @@
         <v>1321</v>
       </c>
       <c r="D551" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="E551" t="s">
         <v>867</v>
@@ -18845,7 +18815,7 @@
         <v>1321</v>
       </c>
       <c r="D552" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="E552" t="s">
         <v>870</v>
@@ -18862,7 +18832,7 @@
         <v>1321</v>
       </c>
       <c r="D553" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="E553" t="s">
         <v>895</v>
@@ -18879,7 +18849,7 @@
         <v>1321</v>
       </c>
       <c r="D554" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="E554" t="s">
         <v>898</v>
@@ -18890,44 +18860,44 @@
     </row>
     <row r="555" spans="1:12">
       <c r="A555" t="s">
-        <v>2292</v>
+        <v>2205</v>
       </c>
       <c r="B555" t="s">
-        <v>2293</v>
+        <v>2206</v>
       </c>
       <c r="D555" t="s">
-        <v>2307</v>
+        <v>2221</v>
       </c>
       <c r="E555" t="s">
-        <v>2294</v>
+        <v>2207</v>
       </c>
       <c r="F555" t="s">
-        <v>2295</v>
+        <v>2208</v>
       </c>
     </row>
     <row r="556" spans="1:12">
       <c r="A556" t="s">
-        <v>2296</v>
+        <v>2209</v>
       </c>
       <c r="B556" t="s">
-        <v>2293</v>
+        <v>2206</v>
       </c>
       <c r="D556" t="s">
-        <v>2308</v>
+        <v>2222</v>
       </c>
       <c r="E556" t="s">
-        <v>2296</v>
+        <v>2209</v>
       </c>
       <c r="F556" t="s">
-        <v>2297</v>
+        <v>2210</v>
       </c>
     </row>
     <row r="557" spans="1:12">
       <c r="A557" t="s">
-        <v>2298</v>
+        <v>2211</v>
       </c>
       <c r="B557" t="s">
-        <v>2299</v>
+        <v>2212</v>
       </c>
       <c r="D557" t="s">
         <v>1252</v>
@@ -18939,7 +18909,7 @@
         <v>1253</v>
       </c>
       <c r="J557" t="s">
-        <v>2300</v>
+        <v>2213</v>
       </c>
       <c r="K557" t="s">
         <v>1254</v>
@@ -18950,36 +18920,36 @@
     </row>
     <row r="558" spans="1:12">
       <c r="A558" t="s">
-        <v>2301</v>
+        <v>2214</v>
       </c>
       <c r="B558" t="s">
-        <v>2302</v>
+        <v>2215</v>
       </c>
       <c r="D558" t="s">
-        <v>2309</v>
+        <v>2223</v>
       </c>
       <c r="E558" t="s">
-        <v>2301</v>
+        <v>2214</v>
       </c>
       <c r="F558" t="s">
-        <v>2303</v>
+        <v>2216</v>
       </c>
     </row>
     <row r="559" spans="1:12">
       <c r="A559" t="s">
-        <v>2304</v>
+        <v>2217</v>
       </c>
       <c r="B559" t="s">
-        <v>2302</v>
+        <v>2215</v>
       </c>
       <c r="D559" t="s">
-        <v>2310</v>
+        <v>2220</v>
       </c>
       <c r="E559" t="s">
-        <v>2305</v>
+        <v>2218</v>
       </c>
       <c r="F559" t="s">
-        <v>2306</v>
+        <v>2219</v>
       </c>
     </row>
   </sheetData>
